--- a/capiq_data/in_process_data/IQ24321.xlsx
+++ b/capiq_data/in_process_data/IQ24321.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E574F4-8C25-444A-8D26-F07C0E03D014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7616A64-F8FA-42FE-87F3-869C97E87C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"71e9f4c8-809f-4d85-bf30-4a6149bad2f8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d8062686-7c4a-4572-afc0-15fe985a0438"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40515</v>
+        <v>36861</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>268.85000000000002</v>
+        <v>79.195999999999998</v>
       </c>
       <c r="D2">
-        <v>1007.946</v>
+        <v>355.19400000000002</v>
       </c>
       <c r="E2">
-        <v>554.32799999999997</v>
+        <v>140.51400000000001</v>
       </c>
       <c r="F2">
-        <v>900.72900000000004</v>
+        <v>332.93299999999999</v>
       </c>
       <c r="G2">
-        <v>3216.05</v>
+        <v>877.91200000000003</v>
       </c>
       <c r="H2">
-        <v>8141.1480000000001</v>
+        <v>1069.4159999999999</v>
       </c>
       <c r="I2">
-        <v>52.432000000000002</v>
+        <v>40.28</v>
       </c>
       <c r="J2">
-        <v>1513.662</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1068.088</v>
+        <v>314.60500000000002</v>
       </c>
       <c r="O2">
-        <v>2948.761</v>
+        <v>316.87200000000001</v>
       </c>
       <c r="P2">
-        <v>1522.461</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-64.257999999999996</v>
+        <v>45.850999999999999</v>
       </c>
       <c r="R2">
-        <v>40515</v>
+        <v>36861</v>
       </c>
       <c r="S2">
-        <v>9117</v>
+        <v>2947</v>
       </c>
       <c r="T2">
-        <v>5192.3869999999997</v>
+        <v>752.54399999999998</v>
       </c>
       <c r="U2">
-        <v>749.89099999999996</v>
+        <v>236.86600000000001</v>
       </c>
       <c r="V2">
-        <v>310.62099999999998</v>
+        <v>150.34800000000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-3.0070000000000001</v>
       </c>
       <c r="X2">
-        <v>-186.262</v>
+        <v>7.7690000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>45.750999999999998</v>
+        <v>-76.557000000000002</v>
       </c>
       <c r="AA2">
-        <v>268.85000000000002</v>
+        <v>79.195999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40606</v>
+        <v>36952</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>234.59100000000001</v>
+        <v>69.756</v>
       </c>
       <c r="D3">
-        <v>1027.7059999999999</v>
+        <v>328.96899999999999</v>
       </c>
       <c r="E3">
-        <v>533.35299999999995</v>
+        <v>149.28800000000001</v>
       </c>
       <c r="F3">
-        <v>920.06700000000001</v>
+        <v>308.95299999999997</v>
       </c>
       <c r="G3">
-        <v>3350.7979999999998</v>
+        <v>845.375</v>
       </c>
       <c r="H3">
-        <v>8310.0239999999994</v>
+        <v>1034.635</v>
       </c>
       <c r="I3">
-        <v>54.741999999999997</v>
+        <v>38.694000000000003</v>
       </c>
       <c r="J3">
-        <v>1494.13</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.169</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>985.53200000000004</v>
+        <v>287.75299999999999</v>
       </c>
       <c r="O3">
-        <v>2884.6170000000002</v>
+        <v>291.89800000000002</v>
       </c>
       <c r="P3">
-        <v>1520.453</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>150.26499999999999</v>
+        <v>-60.603999999999999</v>
       </c>
       <c r="R3">
-        <v>40606</v>
+        <v>36952</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5425.4070000000002</v>
+        <v>742.73699999999997</v>
       </c>
       <c r="U3">
-        <v>900.15599999999995</v>
+        <v>176.262</v>
       </c>
       <c r="V3">
-        <v>332.10199999999998</v>
+        <v>68.537000000000006</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-3.0259999999999998</v>
       </c>
       <c r="X3">
-        <v>-86.518000000000001</v>
+        <v>-88.206999999999994</v>
       </c>
       <c r="Y3">
-        <v>17.422999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-26.007999999999999</v>
+        <v>-23.106999999999999</v>
       </c>
       <c r="AA3">
-        <v>234.59100000000001</v>
+        <v>69.756</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40697</v>
+        <v>37043</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>229.43600000000001</v>
+        <v>61.305</v>
       </c>
       <c r="D4">
-        <v>1023.179</v>
+        <v>344.09300000000002</v>
       </c>
       <c r="E4">
-        <v>568.57000000000005</v>
+        <v>148.15199999999999</v>
       </c>
       <c r="F4">
-        <v>913.97799999999995</v>
+        <v>321.73399999999998</v>
       </c>
       <c r="G4">
-        <v>3389.3180000000002</v>
+        <v>803.97199999999998</v>
       </c>
       <c r="H4">
-        <v>8339.7160000000003</v>
+        <v>997.02800000000002</v>
       </c>
       <c r="I4">
-        <v>60.533000000000001</v>
+        <v>31.326000000000001</v>
       </c>
       <c r="J4">
-        <v>1494.2950000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1050.3789999999999</v>
+        <v>314.05399999999997</v>
       </c>
       <c r="O4">
-        <v>2950.3009999999999</v>
+        <v>314.05399999999997</v>
       </c>
       <c r="P4">
-        <v>1518.431</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-72.680999999999997</v>
+        <v>33.472000000000001</v>
       </c>
       <c r="R4">
-        <v>40697</v>
+        <v>37043</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5389.415</v>
+        <v>682.97400000000005</v>
       </c>
       <c r="U4">
-        <v>827.47500000000002</v>
+        <v>209.73400000000001</v>
       </c>
       <c r="V4">
-        <v>389.33100000000002</v>
+        <v>138.827</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-3.01</v>
       </c>
       <c r="X4">
-        <v>-365.96</v>
+        <v>-141.57900000000001</v>
       </c>
       <c r="Y4">
-        <v>15.132999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-64.974000000000004</v>
+        <v>51.970999999999997</v>
       </c>
       <c r="AA4">
-        <v>229.43600000000001</v>
+        <v>61.305</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40788</v>
+        <v>37134</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>195.101</v>
+        <v>40.293999999999997</v>
       </c>
       <c r="D5">
-        <v>1013.212</v>
+        <v>292.11799999999999</v>
       </c>
       <c r="E5">
-        <v>559.32000000000005</v>
+        <v>149.298</v>
       </c>
       <c r="F5">
-        <v>908.55799999999999</v>
+        <v>272.077</v>
       </c>
       <c r="G5">
-        <v>3469.1959999999999</v>
+        <v>790.98500000000001</v>
       </c>
       <c r="H5">
-        <v>8492.7579999999998</v>
+        <v>968.12800000000004</v>
       </c>
       <c r="I5">
-        <v>65.236000000000004</v>
+        <v>30.75</v>
       </c>
       <c r="J5">
-        <v>1494.461</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1032.259</v>
+        <v>298.18799999999999</v>
       </c>
       <c r="O5">
-        <v>2928.8</v>
+        <v>298.18799999999999</v>
       </c>
       <c r="P5">
-        <v>1516.385</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-58.262999999999998</v>
+        <v>83.084999999999994</v>
       </c>
       <c r="R5">
-        <v>40788</v>
+        <v>37134</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5563.9579999999996</v>
+        <v>669.94</v>
       </c>
       <c r="U5">
-        <v>769.21199999999999</v>
+        <v>292.81900000000002</v>
       </c>
       <c r="V5">
-        <v>325.12799999999999</v>
+        <v>82.727000000000004</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
       <c r="X5">
-        <v>-97.680999999999997</v>
+        <v>-71.320999999999998</v>
       </c>
       <c r="Y5">
-        <v>12.817</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-164.22200000000001</v>
+        <v>85.707999999999998</v>
       </c>
       <c r="AA5">
-        <v>195.101</v>
+        <v>40.293999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40879</v>
+        <v>37225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>173.71899999999999</v>
+        <v>34.289000000000001</v>
       </c>
       <c r="D6">
-        <v>1152.1610000000001</v>
+        <v>264.54000000000002</v>
       </c>
       <c r="E6">
-        <v>634.37300000000005</v>
+        <v>125.65600000000001</v>
       </c>
       <c r="F6">
-        <v>1035.7819999999999</v>
+        <v>245.505</v>
       </c>
       <c r="G6">
-        <v>3771.451</v>
+        <v>768.91399999999999</v>
       </c>
       <c r="H6">
-        <v>8991.1830000000009</v>
+        <v>932.173</v>
       </c>
       <c r="I6">
-        <v>86.66</v>
+        <v>30.890999999999998</v>
       </c>
       <c r="J6">
-        <v>1494.627</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1250.779</v>
+        <v>315.20100000000002</v>
       </c>
       <c r="O6">
-        <v>3208.07</v>
+        <v>315.20100000000002</v>
       </c>
       <c r="P6">
-        <v>1514.308</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>220.28800000000001</v>
+        <v>-74.156999999999996</v>
       </c>
       <c r="R6">
-        <v>40879</v>
+        <v>37225</v>
       </c>
       <c r="S6">
-        <v>9925</v>
+        <v>3043</v>
       </c>
       <c r="T6">
-        <v>5783.1130000000003</v>
+        <v>616.97199999999998</v>
       </c>
       <c r="U6">
-        <v>989.5</v>
+        <v>218.66200000000001</v>
       </c>
       <c r="V6">
-        <v>496.75299999999999</v>
+        <v>128.61099999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-2.9809999999999999</v>
       </c>
       <c r="X6">
-        <v>-0.19900000000000001</v>
+        <v>-108.479</v>
       </c>
       <c r="Y6">
-        <v>10.468999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-32.857999999999997</v>
+        <v>-97.822999999999993</v>
       </c>
       <c r="AA6">
-        <v>173.71899999999999</v>
+        <v>34.289000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40970</v>
+        <v>37316</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>185.209</v>
+        <v>49.808</v>
       </c>
       <c r="D7">
-        <v>1045.22</v>
+        <v>267.89600000000002</v>
       </c>
       <c r="E7">
-        <v>512.21100000000001</v>
+        <v>143.65299999999999</v>
       </c>
       <c r="F7">
-        <v>936.95500000000004</v>
+        <v>246.899</v>
       </c>
       <c r="G7">
-        <v>3505.6550000000002</v>
+        <v>826.20299999999997</v>
       </c>
       <c r="H7">
-        <v>9132.7080000000005</v>
+        <v>989.94200000000001</v>
       </c>
       <c r="I7">
-        <v>70.099999999999994</v>
+        <v>34.442999999999998</v>
       </c>
       <c r="J7">
-        <v>1494.7929999999999</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2.2639999999999998</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1115.0219999999999</v>
+        <v>300.43099999999998</v>
       </c>
       <c r="O7">
-        <v>3146.4059999999999</v>
+        <v>300.43099999999998</v>
       </c>
       <c r="P7">
-        <v>1512.211</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-188.23699999999999</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="R7">
-        <v>40970</v>
+        <v>37316</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5986.3019999999997</v>
+        <v>689.51099999999997</v>
       </c>
       <c r="U7">
-        <v>801.26300000000003</v>
+        <v>220.7</v>
       </c>
       <c r="V7">
-        <v>314.363</v>
+        <v>38.063000000000002</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-2.9609999999999999</v>
       </c>
       <c r="X7">
-        <v>-68.525000000000006</v>
+        <v>19.027999999999999</v>
       </c>
       <c r="Y7">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-33.435000000000002</v>
+        <v>-39.723999999999997</v>
       </c>
       <c r="AA7">
-        <v>185.209</v>
+        <v>49.808</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41061</v>
+        <v>37407</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>223.876</v>
+        <v>54.301000000000002</v>
       </c>
       <c r="D8">
-        <v>1124.4490000000001</v>
+        <v>317.35899999999998</v>
       </c>
       <c r="E8">
-        <v>529.39099999999996</v>
+        <v>133.875</v>
       </c>
       <c r="F8">
-        <v>993.53099999999995</v>
+        <v>292.226</v>
       </c>
       <c r="G8">
-        <v>3770.8069999999998</v>
+        <v>907.77700000000004</v>
       </c>
       <c r="H8">
-        <v>9365.8320000000003</v>
+        <v>1155.1369999999999</v>
       </c>
       <c r="I8">
-        <v>69.415999999999997</v>
+        <v>33.712000000000003</v>
       </c>
       <c r="J8">
-        <v>1494.9939999999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1245.644</v>
+        <v>346.654</v>
       </c>
       <c r="O8">
-        <v>3266.1860000000001</v>
+        <v>346.654</v>
       </c>
       <c r="P8">
-        <v>1510.0940000000001</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>149.97499999999999</v>
+        <v>10.552</v>
       </c>
       <c r="R8">
-        <v>41061</v>
+        <v>37407</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>6099.6459999999997</v>
+        <v>808.48299999999995</v>
       </c>
       <c r="U8">
-        <v>951.23800000000006</v>
+        <v>231.25200000000001</v>
       </c>
       <c r="V8">
-        <v>448.21800000000002</v>
+        <v>108.77</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-2.972</v>
       </c>
       <c r="X8">
-        <v>-148.73500000000001</v>
+        <v>-12.667</v>
       </c>
       <c r="Y8">
-        <v>5.6740000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-87.432000000000002</v>
+        <v>-83.347999999999999</v>
       </c>
       <c r="AA8">
-        <v>223.876</v>
+        <v>54.301000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>201.357</v>
+        <v>47.201000000000001</v>
       </c>
       <c r="D9">
-        <v>1080.58</v>
+        <v>284.87900000000002</v>
       </c>
       <c r="E9">
-        <v>566.67100000000005</v>
+        <v>144.90899999999999</v>
       </c>
       <c r="F9">
-        <v>960.95899999999995</v>
+        <v>253.24299999999999</v>
       </c>
       <c r="G9">
-        <v>4010.1729999999998</v>
+        <v>863.66899999999998</v>
       </c>
       <c r="H9">
-        <v>9630.0130000000008</v>
+        <v>1104.8630000000001</v>
       </c>
       <c r="I9">
-        <v>58.445999999999998</v>
+        <v>32.868000000000002</v>
       </c>
       <c r="J9">
-        <v>1495.174</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1169.71</v>
+        <v>344.70800000000003</v>
       </c>
       <c r="O9">
-        <v>3191.32</v>
+        <v>344.70800000000003</v>
       </c>
       <c r="P9">
-        <v>1510.9739999999999</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>211.142</v>
+        <v>-89.897999999999996</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>6438.6930000000002</v>
+        <v>760.15499999999997</v>
       </c>
       <c r="U9">
-        <v>1162.3800000000001</v>
+        <v>141.35400000000001</v>
       </c>
       <c r="V9">
-        <v>263.33999999999997</v>
+        <v>46.579000000000001</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-2.9940000000000002</v>
       </c>
       <c r="X9">
-        <v>62.956000000000003</v>
+        <v>-96.504000000000005</v>
       </c>
       <c r="Y9">
-        <v>4.7069999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-41.838000000000001</v>
+        <v>-30.172999999999998</v>
       </c>
       <c r="AA9">
-        <v>201.357</v>
+        <v>47.201000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>222.333</v>
+        <v>40.088999999999999</v>
       </c>
       <c r="D10">
-        <v>1153.4280000000001</v>
+        <v>294.654</v>
       </c>
       <c r="E10">
-        <v>617.23299999999995</v>
+        <v>116.506</v>
       </c>
       <c r="F10">
-        <v>1028.45</v>
+        <v>274.43200000000002</v>
       </c>
       <c r="G10">
-        <v>4397.0659999999998</v>
+        <v>814.17200000000003</v>
       </c>
       <c r="H10">
-        <v>10040.228999999999</v>
+        <v>1051.6099999999999</v>
       </c>
       <c r="I10">
-        <v>49.759</v>
+        <v>37.765000000000001</v>
       </c>
       <c r="J10">
-        <v>1495.3119999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1271.752</v>
+        <v>377.28899999999999</v>
       </c>
       <c r="O10">
-        <v>3375.047</v>
+        <v>377.28899999999999</v>
       </c>
       <c r="P10">
-        <v>1508.155</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>262.67200000000003</v>
+        <v>42.33</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="S10">
-        <v>11144</v>
+        <v>3341</v>
       </c>
       <c r="T10">
-        <v>6665.1819999999998</v>
+        <v>674.32100000000003</v>
       </c>
       <c r="U10">
-        <v>1425.0519999999999</v>
+        <v>183.684</v>
       </c>
       <c r="V10">
-        <v>473.65899999999999</v>
+        <v>135.91900000000001</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-2.9540000000000002</v>
       </c>
       <c r="X10">
-        <v>-80.418999999999997</v>
+        <v>-133.12</v>
       </c>
       <c r="Y10">
-        <v>1.6259999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-47.686</v>
+        <v>35.215000000000003</v>
       </c>
       <c r="AA10">
-        <v>222.333</v>
+        <v>40.088999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41334</v>
+        <v>37680</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>65.117000000000004</v>
+        <v>54.225000000000001</v>
       </c>
       <c r="D11">
-        <v>1007.873</v>
+        <v>296.89499999999998</v>
       </c>
       <c r="E11">
-        <v>485.80099999999999</v>
+        <v>135.626</v>
       </c>
       <c r="F11">
-        <v>851.18899999999996</v>
+        <v>274.53300000000002</v>
       </c>
       <c r="G11">
-        <v>4373.0829999999996</v>
+        <v>853.04700000000003</v>
       </c>
       <c r="H11">
-        <v>10165.710999999999</v>
+        <v>1087.8309999999999</v>
       </c>
       <c r="I11">
-        <v>72.724999999999994</v>
+        <v>34.191000000000003</v>
       </c>
       <c r="J11">
-        <v>1495.4860000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-2.5070000000000001</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1264.3230000000001</v>
+        <v>390.39800000000002</v>
       </c>
       <c r="O11">
-        <v>3360.373</v>
+        <v>390.39800000000002</v>
       </c>
       <c r="P11">
-        <v>1531.4090000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-118.67</v>
+        <v>-41.587000000000003</v>
       </c>
       <c r="R11">
-        <v>41334</v>
+        <v>37680</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6805.3379999999997</v>
+        <v>697.43299999999999</v>
       </c>
       <c r="U11">
-        <v>1306.3820000000001</v>
+        <v>142.09700000000001</v>
       </c>
       <c r="V11">
-        <v>322.03100000000001</v>
+        <v>79.346999999999994</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-2.887</v>
       </c>
       <c r="X11">
-        <v>11.404999999999999</v>
+        <v>-34.365000000000002</v>
       </c>
       <c r="Y11">
-        <v>13.516999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-289.56799999999998</v>
+        <v>-80.647999999999996</v>
       </c>
       <c r="AA11">
-        <v>65.117000000000004</v>
+        <v>54.225000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>76.546000000000006</v>
+        <v>64.245999999999995</v>
       </c>
       <c r="D12">
-        <v>1010.549</v>
+        <v>320.14600000000002</v>
       </c>
       <c r="E12">
-        <v>470.05200000000002</v>
+        <v>129.226</v>
       </c>
       <c r="F12">
-        <v>875.26800000000003</v>
+        <v>296.79000000000002</v>
       </c>
       <c r="G12">
-        <v>4557.6570000000002</v>
+        <v>986.04499999999996</v>
       </c>
       <c r="H12">
-        <v>10280.369000000001</v>
+        <v>1239.7360000000001</v>
       </c>
       <c r="I12">
-        <v>53.685000000000002</v>
+        <v>41.305999999999997</v>
       </c>
       <c r="J12">
-        <v>1495.6590000000001</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1264.855</v>
+        <v>432.79899999999998</v>
       </c>
       <c r="O12">
-        <v>3353.067</v>
+        <v>432.79899999999998</v>
       </c>
       <c r="P12">
-        <v>1525.643</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-59.972000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6927.3019999999997</v>
+        <v>806.93700000000001</v>
       </c>
       <c r="U12">
-        <v>1246.4100000000001</v>
+        <v>141.83099999999999</v>
       </c>
       <c r="V12">
-        <v>299.14800000000002</v>
+        <v>128.09100000000001</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-2.8980000000000001</v>
       </c>
       <c r="X12">
-        <v>-22.641999999999999</v>
+        <v>33.19</v>
       </c>
       <c r="Y12">
-        <v>9.9009999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-288.19</v>
+        <v>-134.66800000000001</v>
       </c>
       <c r="AA12">
-        <v>76.546000000000006</v>
+        <v>64.245999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>83.001999999999995</v>
+        <v>64.524000000000001</v>
       </c>
       <c r="D13">
-        <v>995.11900000000003</v>
+        <v>319.12200000000001</v>
       </c>
       <c r="E13">
-        <v>522.40899999999999</v>
+        <v>108.70699999999999</v>
       </c>
       <c r="F13">
-        <v>848.04300000000001</v>
+        <v>297.04500000000002</v>
       </c>
       <c r="G13">
-        <v>3886.1239999999998</v>
+        <v>1037.162</v>
       </c>
       <c r="H13">
-        <v>10234.156000000001</v>
+        <v>1286.7809999999999</v>
       </c>
       <c r="I13">
-        <v>71.069999999999993</v>
+        <v>32.07</v>
       </c>
       <c r="J13">
-        <v>1495.847</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1329.117</v>
+        <v>423.005</v>
       </c>
       <c r="O13">
-        <v>3399.3969999999999</v>
+        <v>423.005</v>
       </c>
       <c r="P13">
-        <v>1519.8309999999999</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-427.32499999999999</v>
+        <v>2.63</v>
       </c>
       <c r="R13">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6834.759</v>
+        <v>863.77599999999995</v>
       </c>
       <c r="U13">
-        <v>819.08500000000004</v>
+        <v>144.46100000000001</v>
       </c>
       <c r="V13">
-        <v>215.52500000000001</v>
+        <v>97.082999999999998</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-2.9159999999999999</v>
       </c>
       <c r="X13">
-        <v>-247.37100000000001</v>
+        <v>-10.962999999999999</v>
       </c>
       <c r="Y13">
-        <v>6.5220000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>257.58199999999999</v>
+        <v>-75.123999999999995</v>
       </c>
       <c r="AA13">
-        <v>83.001999999999995</v>
+        <v>64.524000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>65.319999999999993</v>
+        <v>83.349000000000004</v>
       </c>
       <c r="D14">
-        <v>1041.6990000000001</v>
+        <v>358.58600000000001</v>
       </c>
       <c r="E14">
-        <v>599.82000000000005</v>
+        <v>146.31100000000001</v>
       </c>
       <c r="F14">
-        <v>894.18299999999999</v>
+        <v>333.35899999999998</v>
       </c>
       <c r="G14">
-        <v>4045.9290000000001</v>
+        <v>1329.028</v>
       </c>
       <c r="H14">
-        <v>10380.298000000001</v>
+        <v>1555.0450000000001</v>
       </c>
       <c r="I14">
-        <v>62.095999999999997</v>
+        <v>37.436999999999998</v>
       </c>
       <c r="J14">
-        <v>1499.297</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1525.6479999999999</v>
+        <v>436.53</v>
       </c>
       <c r="O14">
-        <v>3655.6640000000002</v>
+        <v>454.245</v>
       </c>
       <c r="P14">
-        <v>1513.973</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15.471</v>
+        <v>45.456000000000003</v>
       </c>
       <c r="R14">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="S14">
-        <v>11847</v>
+        <v>3515</v>
       </c>
       <c r="T14">
-        <v>6724.634</v>
+        <v>1100.8</v>
       </c>
       <c r="U14">
-        <v>834.55600000000004</v>
+        <v>189.917</v>
       </c>
       <c r="V14">
-        <v>314.98200000000003</v>
+        <v>128.61500000000001</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-2.9249999999999998</v>
       </c>
       <c r="X14">
-        <v>-300.52999999999997</v>
+        <v>129.15600000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>11.06</v>
+        <v>-201.99799999999999</v>
       </c>
       <c r="AA14">
-        <v>65.319999999999993</v>
+        <v>83.349000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>38051</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>47.045999999999999</v>
+        <v>123.035</v>
       </c>
       <c r="D15">
-        <v>1000.12</v>
+        <v>423.28100000000001</v>
       </c>
       <c r="E15">
-        <v>510.50700000000001</v>
+        <v>122.955</v>
       </c>
       <c r="F15">
-        <v>851.61099999999999</v>
+        <v>399.09899999999999</v>
       </c>
       <c r="G15">
-        <v>3942.3910000000001</v>
+        <v>1462.1379999999999</v>
       </c>
       <c r="H15">
-        <v>10245.882</v>
+        <v>1691.5060000000001</v>
       </c>
       <c r="I15">
-        <v>64.507999999999996</v>
+        <v>35.597999999999999</v>
       </c>
       <c r="J15">
-        <v>896.41800000000001</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-4.4329999999999998</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2112.3470000000002</v>
+        <v>439.79500000000002</v>
       </c>
       <c r="O15">
-        <v>3634.9989999999998</v>
+        <v>474.02199999999999</v>
       </c>
       <c r="P15">
-        <v>1509.7280000000001</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-100.64</v>
+        <v>16.286999999999999</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>38051</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6610.8829999999998</v>
+        <v>1217.4839999999999</v>
       </c>
       <c r="U15">
-        <v>733.91600000000005</v>
+        <v>199.75899999999999</v>
       </c>
       <c r="V15">
-        <v>251.673</v>
+        <v>185.46100000000001</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-2.9860000000000002</v>
       </c>
       <c r="X15">
-        <v>-258.209</v>
+        <v>-18.236999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-65.028999999999996</v>
+        <v>-136.82499999999999</v>
       </c>
       <c r="AA15">
-        <v>47.045999999999999</v>
+        <v>123.035</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41789</v>
+        <v>38142</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>88.527000000000001</v>
+        <v>109.401</v>
       </c>
       <c r="D16">
-        <v>1068.2080000000001</v>
+        <v>410.08499999999998</v>
       </c>
       <c r="E16">
-        <v>531.55700000000002</v>
+        <v>105.654</v>
       </c>
       <c r="F16">
-        <v>913.30399999999997</v>
+        <v>382.83</v>
       </c>
       <c r="G16">
-        <v>4114.3429999999998</v>
+        <v>1484.6389999999999</v>
       </c>
       <c r="H16">
-        <v>10372.199000000001</v>
+        <v>1733.127</v>
       </c>
       <c r="I16">
-        <v>54.857999999999997</v>
+        <v>33.133000000000003</v>
       </c>
       <c r="J16">
-        <v>896.55100000000004</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2217.9720000000002</v>
+        <v>421.01299999999998</v>
       </c>
       <c r="O16">
-        <v>3735.3110000000001</v>
+        <v>470.875</v>
       </c>
       <c r="P16">
-        <v>1506.2929999999999</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>83.103999999999999</v>
+        <v>26.355</v>
       </c>
       <c r="R16">
-        <v>41789</v>
+        <v>38142</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6636.8879999999999</v>
+        <v>1262.252</v>
       </c>
       <c r="U16">
-        <v>817.02</v>
+        <v>218.66399999999999</v>
       </c>
       <c r="V16">
-        <v>367.536</v>
+        <v>147</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-2.9830000000000001</v>
       </c>
       <c r="X16">
-        <v>-135.92699999999999</v>
+        <v>-68.001999999999995</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-120.73399999999999</v>
+        <v>-24.122</v>
       </c>
       <c r="AA16">
-        <v>88.527000000000001</v>
+        <v>109.401</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41880</v>
+        <v>38233</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>44.686</v>
+        <v>104.461</v>
       </c>
       <c r="D17">
-        <v>1005.409</v>
+        <v>403.71300000000002</v>
       </c>
       <c r="E17">
-        <v>528.33100000000002</v>
+        <v>110.57299999999999</v>
       </c>
       <c r="F17">
-        <v>847.68499999999995</v>
+        <v>380.14400000000001</v>
       </c>
       <c r="G17">
-        <v>4279.4679999999998</v>
+        <v>1333.5709999999999</v>
       </c>
       <c r="H17">
-        <v>10493.68</v>
+        <v>1720.808</v>
       </c>
       <c r="I17">
-        <v>53.790999999999997</v>
+        <v>36.661000000000001</v>
       </c>
       <c r="J17">
-        <v>901.83</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2245.248</v>
+        <v>430.22399999999999</v>
       </c>
       <c r="O17">
-        <v>3762.42</v>
+        <v>495.05200000000002</v>
       </c>
       <c r="P17">
-        <v>1508.2560000000001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>86.308999999999997</v>
+        <v>-24.763000000000002</v>
       </c>
       <c r="R17">
-        <v>41880</v>
+        <v>38233</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6731.26</v>
+        <v>1225.7560000000001</v>
       </c>
       <c r="U17">
-        <v>903.32899999999995</v>
+        <v>198.7</v>
       </c>
       <c r="V17">
-        <v>268.52</v>
+        <v>160.446</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-2.9910000000000001</v>
       </c>
       <c r="X17">
-        <v>-9.7940000000000005</v>
+        <v>-156.42699999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-115.428</v>
+        <v>112.44799999999999</v>
       </c>
       <c r="AA17">
-        <v>44.686</v>
+        <v>104.461</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41971</v>
+        <v>38324</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>88.135999999999996</v>
+        <v>113.501</v>
       </c>
       <c r="D18">
-        <v>1073.328</v>
+        <v>429.50200000000001</v>
       </c>
       <c r="E18">
-        <v>591.79999999999995</v>
+        <v>141.94499999999999</v>
       </c>
       <c r="F18">
-        <v>912.38499999999999</v>
+        <v>400.13</v>
       </c>
       <c r="G18">
-        <v>4602.3280000000004</v>
+        <v>1551.029</v>
       </c>
       <c r="H18">
-        <v>10785.829</v>
+        <v>1958.6320000000001</v>
       </c>
       <c r="I18">
-        <v>68.376999999999995</v>
+        <v>43.192</v>
       </c>
       <c r="J18">
-        <v>911.08600000000001</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2494.4349999999999</v>
+        <v>443.887</v>
       </c>
       <c r="O18">
-        <v>4009.924</v>
+        <v>535.15499999999997</v>
       </c>
       <c r="P18">
-        <v>1514.3150000000001</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>214.071</v>
+        <v>114.66</v>
       </c>
       <c r="R18">
-        <v>41971</v>
+        <v>38324</v>
       </c>
       <c r="S18">
-        <v>12499</v>
+        <v>3848</v>
       </c>
       <c r="T18">
-        <v>6775.9049999999997</v>
+        <v>1423.4770000000001</v>
       </c>
       <c r="U18">
-        <v>1117.4000000000001</v>
+        <v>259.06099999999998</v>
       </c>
       <c r="V18">
-        <v>399.75299999999999</v>
+        <v>190.83699999999999</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-2.9820000000000002</v>
       </c>
       <c r="X18">
-        <v>-103.35299999999999</v>
+        <v>18.148</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-11.382</v>
+        <v>-76.183000000000007</v>
       </c>
       <c r="AA18">
-        <v>88.135999999999996</v>
+        <v>113.501</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42062</v>
+        <v>38415</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>84.888000000000005</v>
+        <v>151.89400000000001</v>
       </c>
       <c r="D19">
-        <v>1109.181</v>
+        <v>472.88200000000001</v>
       </c>
       <c r="E19">
-        <v>532.42700000000002</v>
+        <v>138.352</v>
       </c>
       <c r="F19">
-        <v>942.38300000000004</v>
+        <v>445.91300000000001</v>
       </c>
       <c r="G19">
-        <v>3972.1590000000001</v>
+        <v>1699.9390000000001</v>
       </c>
       <c r="H19">
-        <v>11008.422</v>
+        <v>2122.81</v>
       </c>
       <c r="I19">
-        <v>71.67</v>
+        <v>38.575000000000003</v>
       </c>
       <c r="J19">
-        <v>1901.5540000000001</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-602.18899999999996</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1788.16</v>
+        <v>484.18799999999999</v>
       </c>
       <c r="O19">
-        <v>4419.402</v>
+        <v>498.245</v>
       </c>
       <c r="P19">
-        <v>1901.6179999999999</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-404.51600000000002</v>
+        <v>-41.701000000000001</v>
       </c>
       <c r="R19">
-        <v>42062</v>
+        <v>38415</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6589.02</v>
+        <v>1624.5650000000001</v>
       </c>
       <c r="U19">
-        <v>712.88400000000001</v>
+        <v>217.36</v>
       </c>
       <c r="V19">
-        <v>183.01499999999999</v>
+        <v>164.09700000000001</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-3.032</v>
       </c>
       <c r="X19">
-        <v>119.27500000000001</v>
+        <v>22.867000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>137.517</v>
+        <v>-206.447</v>
       </c>
       <c r="AA19">
-        <v>84.888000000000005</v>
+        <v>151.89400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42153</v>
+        <v>38506</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>147.49299999999999</v>
+        <v>149.77799999999999</v>
       </c>
       <c r="D20">
-        <v>1162.1579999999999</v>
+        <v>496.029</v>
       </c>
       <c r="E20">
-        <v>502.61700000000002</v>
+        <v>172.173</v>
       </c>
       <c r="F20">
-        <v>976.98500000000001</v>
+        <v>468.59500000000003</v>
       </c>
       <c r="G20">
-        <v>4178.3969999999999</v>
+        <v>1999.568</v>
       </c>
       <c r="H20">
-        <v>11165.383</v>
+        <v>2421.2159999999999</v>
       </c>
       <c r="I20">
-        <v>56.539000000000001</v>
+        <v>38.716999999999999</v>
       </c>
       <c r="J20">
-        <v>1904.376</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1937.0329999999999</v>
+        <v>517.92399999999998</v>
       </c>
       <c r="O20">
-        <v>4555.28</v>
+        <v>551.31299999999999</v>
       </c>
       <c r="P20">
-        <v>1904.376</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>243.26300000000001</v>
+        <v>35.942</v>
       </c>
       <c r="R20">
-        <v>42153</v>
+        <v>38506</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>6610.1030000000001</v>
+        <v>1869.903</v>
       </c>
       <c r="U20">
-        <v>956.14700000000005</v>
+        <v>253.30199999999999</v>
       </c>
       <c r="V20">
-        <v>471.48399999999998</v>
+        <v>170.982</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="X20">
-        <v>-186.102</v>
+        <v>71.364000000000004</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2.4580000000000002</v>
+        <v>-195.19499999999999</v>
       </c>
       <c r="AA20">
-        <v>147.49299999999999</v>
+        <v>149.77799999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42244</v>
+        <v>38597</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>174.465</v>
+        <v>144.916</v>
       </c>
       <c r="D21">
-        <v>1217.768</v>
+        <v>487.03899999999999</v>
       </c>
       <c r="E21">
-        <v>593.55399999999997</v>
+        <v>157.23599999999999</v>
       </c>
       <c r="F21">
-        <v>1026.7829999999999</v>
+        <v>459.55900000000003</v>
       </c>
       <c r="G21">
-        <v>4525.8879999999999</v>
+        <v>2180.6790000000001</v>
       </c>
       <c r="H21">
-        <v>11508.395</v>
+        <v>2605.5949999999998</v>
       </c>
       <c r="I21">
-        <v>69.822999999999993</v>
+        <v>37.427999999999997</v>
       </c>
       <c r="J21">
-        <v>1906.0940000000001</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2060.8139999999999</v>
+        <v>479.08499999999998</v>
       </c>
       <c r="O21">
-        <v>4667.0630000000001</v>
+        <v>525.44399999999996</v>
       </c>
       <c r="P21">
-        <v>1906.0940000000001</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-126.855</v>
+        <v>200.86600000000001</v>
       </c>
       <c r="R21">
-        <v>42244</v>
+        <v>38597</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>6841.3320000000003</v>
+        <v>2080.1509999999998</v>
       </c>
       <c r="U21">
-        <v>829.29200000000003</v>
+        <v>454.16800000000001</v>
       </c>
       <c r="V21">
-        <v>360.488</v>
+        <v>173.02099999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-18.71</v>
+        <v>52.298000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-396.08199999999999</v>
+        <v>-8.9559999999999995</v>
       </c>
       <c r="AA21">
-        <v>174.465</v>
+        <v>144.916</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42335</v>
+        <v>38688</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>222.70500000000001</v>
+        <v>156.251</v>
       </c>
       <c r="D22">
-        <v>1306.404</v>
+        <v>510.37099999999998</v>
       </c>
       <c r="E22">
-        <v>672.00599999999997</v>
+        <v>173.245</v>
       </c>
       <c r="F22">
-        <v>1105.0429999999999</v>
+        <v>479.67599999999999</v>
       </c>
       <c r="G22">
-        <v>4821.8919999999998</v>
+        <v>2008.578</v>
       </c>
       <c r="H22">
-        <v>11726.472</v>
+        <v>2440.3150000000001</v>
       </c>
       <c r="I22">
-        <v>93.307000000000002</v>
+        <v>27.466999999999999</v>
       </c>
       <c r="J22">
-        <v>1907.231</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2213.556</v>
+        <v>480.39499999999998</v>
       </c>
       <c r="O22">
-        <v>4724.8919999999998</v>
+        <v>575.98900000000003</v>
       </c>
       <c r="P22">
-        <v>1907.231</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>47.268000000000001</v>
+        <v>-33.35</v>
       </c>
       <c r="R22">
-        <v>42335</v>
+        <v>38688</v>
       </c>
       <c r="S22">
-        <v>13893</v>
+        <v>5734</v>
       </c>
       <c r="T22">
-        <v>7001.58</v>
+        <v>1864.326</v>
       </c>
       <c r="U22">
-        <v>876.56</v>
+        <v>420.81799999999998</v>
       </c>
       <c r="V22">
-        <v>454.51499999999999</v>
+        <v>250.28899999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-115.15</v>
+        <v>-393.125</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-279.08999999999997</v>
+        <v>130.21100000000001</v>
       </c>
       <c r="AA22">
-        <v>222.70500000000001</v>
+        <v>156.251</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42433</v>
+        <v>38779</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>254.30699999999999</v>
+        <v>105.072</v>
       </c>
       <c r="D23">
-        <v>1383.335</v>
+        <v>655.47799999999995</v>
       </c>
       <c r="E23">
-        <v>599.20699999999999</v>
+        <v>281.52999999999997</v>
       </c>
       <c r="F23">
-        <v>1184.7629999999999</v>
+        <v>577.73199999999997</v>
       </c>
       <c r="G23">
-        <v>4935.3900000000003</v>
+        <v>2595.5320000000002</v>
       </c>
       <c r="H23">
-        <v>11896.682000000001</v>
+        <v>5801.7330000000002</v>
       </c>
       <c r="I23">
-        <v>71.706000000000003</v>
+        <v>51.218000000000004</v>
       </c>
       <c r="J23">
-        <v>1916.8309999999999</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2231.806</v>
+        <v>571.29700000000003</v>
       </c>
       <c r="O23">
-        <v>4815.4799999999996</v>
+        <v>725.12099999999998</v>
       </c>
       <c r="P23">
-        <v>1916.8309999999999</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-45.863999999999997</v>
+        <v>214.36799999999999</v>
       </c>
       <c r="R23">
-        <v>42433</v>
+        <v>38779</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7081.2020000000002</v>
+        <v>5076.6120000000001</v>
       </c>
       <c r="U23">
-        <v>830.69600000000003</v>
+        <v>635.18600000000004</v>
       </c>
       <c r="V23">
-        <v>497.52699999999999</v>
+        <v>177.369</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-284.392</v>
+        <v>-250.97499999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-212.642</v>
+        <v>-199.334</v>
       </c>
       <c r="AA23">
-        <v>254.30699999999999</v>
+        <v>105.072</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42524</v>
+        <v>38870</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>244.07400000000001</v>
+        <v>123.09699999999999</v>
       </c>
       <c r="D24">
-        <v>1398.7090000000001</v>
+        <v>635.45600000000002</v>
       </c>
       <c r="E24">
-        <v>666.73599999999999</v>
+        <v>276.24</v>
       </c>
       <c r="F24">
-        <v>1196.6300000000001</v>
+        <v>569.84900000000005</v>
       </c>
       <c r="G24">
-        <v>5238.5640000000003</v>
+        <v>2328.4560000000001</v>
       </c>
       <c r="H24">
-        <v>12216.782999999999</v>
+        <v>5501.4859999999999</v>
       </c>
       <c r="I24">
-        <v>75.581999999999994</v>
+        <v>49.481000000000002</v>
       </c>
       <c r="J24">
-        <v>1918.3889999999999</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2385.59</v>
+        <v>574.28099999999995</v>
       </c>
       <c r="O24">
-        <v>4968.1719999999996</v>
+        <v>732.87900000000002</v>
       </c>
       <c r="P24">
-        <v>1918.3889999999999</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>55.683</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="R24">
-        <v>42524</v>
+        <v>38870</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7248.6109999999999</v>
+        <v>4768.607</v>
       </c>
       <c r="U24">
-        <v>886.37900000000002</v>
+        <v>425.39299999999997</v>
       </c>
       <c r="V24">
-        <v>488.71499999999997</v>
+        <v>240.124</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-180.88800000000001</v>
+        <v>-469.17599999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-149.31899999999999</v>
+        <v>62.906999999999996</v>
       </c>
       <c r="AA24">
-        <v>244.07400000000001</v>
+        <v>123.09699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42615</v>
+        <v>38961</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>270.78800000000001</v>
+        <v>94.396000000000001</v>
       </c>
       <c r="D25">
-        <v>1463.9670000000001</v>
+        <v>602.19100000000003</v>
       </c>
       <c r="E25">
-        <v>731.16600000000005</v>
+        <v>284.58600000000001</v>
       </c>
       <c r="F25">
-        <v>1261.2660000000001</v>
+        <v>532.71199999999999</v>
       </c>
       <c r="G25">
-        <v>5418.71</v>
+        <v>2496.5540000000001</v>
       </c>
       <c r="H25">
-        <v>12367.441000000001</v>
+        <v>5620.7849999999999</v>
       </c>
       <c r="I25">
-        <v>83.444000000000003</v>
+        <v>38.624000000000002</v>
       </c>
       <c r="J25">
-        <v>1916.5909999999999</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2505.6660000000002</v>
+        <v>557.697</v>
       </c>
       <c r="O25">
-        <v>5089.4949999999999</v>
+        <v>706.96600000000001</v>
       </c>
       <c r="P25">
-        <v>1916.5909999999999</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-118.70699999999999</v>
+        <v>219.36099999999999</v>
       </c>
       <c r="R25">
-        <v>42615</v>
+        <v>38961</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7277.9459999999999</v>
+        <v>4913.8190000000004</v>
       </c>
       <c r="U25">
-        <v>767.67200000000003</v>
+        <v>644.75400000000002</v>
       </c>
       <c r="V25">
-        <v>517.88499999999999</v>
+        <v>191.416</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-324.95699999999999</v>
+        <v>-6.976</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-251.375</v>
+        <v>53.753</v>
       </c>
       <c r="AA25">
-        <v>270.78800000000001</v>
+        <v>94.396000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42706</v>
+        <v>39052</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>399.613</v>
+        <v>183.244</v>
       </c>
       <c r="D26">
-        <v>1608.4190000000001</v>
+        <v>682.17499999999995</v>
       </c>
       <c r="E26">
-        <v>833.03300000000002</v>
+        <v>356.815</v>
       </c>
       <c r="F26">
-        <v>1391.8630000000001</v>
+        <v>602.54999999999995</v>
       </c>
       <c r="G26">
-        <v>5839.7740000000003</v>
+        <v>2884.4690000000001</v>
       </c>
       <c r="H26">
-        <v>12697.245999999999</v>
+        <v>5962.5479999999998</v>
       </c>
       <c r="I26">
-        <v>88.024000000000001</v>
+        <v>37.914999999999999</v>
       </c>
       <c r="J26">
-        <v>1892.2</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2811.6350000000002</v>
+        <v>677.34699999999998</v>
       </c>
       <c r="O26">
-        <v>5272.4110000000001</v>
+        <v>810.67200000000003</v>
       </c>
       <c r="P26">
-        <v>1892.2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>243.643</v>
+        <v>127.746</v>
       </c>
       <c r="R26">
-        <v>42706</v>
+        <v>39052</v>
       </c>
       <c r="S26">
-        <v>15706</v>
+        <v>6082</v>
       </c>
       <c r="T26">
-        <v>7424.835</v>
+        <v>5151.8760000000002</v>
       </c>
       <c r="U26">
-        <v>1011.3150000000001</v>
+        <v>772.5</v>
       </c>
       <c r="V26">
-        <v>695.601</v>
+        <v>291.036</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-300.46899999999999</v>
+        <v>-20.254999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-94.465000000000003</v>
+        <v>-83.296999999999997</v>
       </c>
       <c r="AA26">
-        <v>399.613</v>
+        <v>183.244</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42797</v>
+        <v>39143</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>398.44600000000003</v>
+        <v>143.851</v>
       </c>
       <c r="D27">
-        <v>1681.646</v>
+        <v>649.40700000000004</v>
       </c>
       <c r="E27">
-        <v>850.84</v>
+        <v>304.74799999999999</v>
       </c>
       <c r="F27">
-        <v>1444.309</v>
+        <v>577.14400000000001</v>
       </c>
       <c r="G27">
-        <v>5755.5619999999999</v>
+        <v>2857</v>
       </c>
       <c r="H27">
-        <v>13044.782999999999</v>
+        <v>5904.1840000000002</v>
       </c>
       <c r="I27">
-        <v>191.48400000000001</v>
+        <v>31.981000000000002</v>
       </c>
       <c r="J27">
-        <v>1884.0740000000001</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.26800000000000002</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2954.069</v>
+        <v>655.524</v>
       </c>
       <c r="O27">
-        <v>5456.0929999999998</v>
+        <v>796.10900000000004</v>
       </c>
       <c r="P27">
-        <v>1884.0740000000001</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>57.581000000000003</v>
+        <v>-246.47</v>
       </c>
       <c r="R27">
-        <v>42797</v>
+        <v>39143</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7588.69</v>
+        <v>5108.0749999999998</v>
       </c>
       <c r="U27">
-        <v>1068.896</v>
+        <v>526.03</v>
       </c>
       <c r="V27">
-        <v>730.37</v>
+        <v>271.12</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-331.495</v>
+        <v>-205.87899999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>151.64699999999999</v>
+        <v>-258.45499999999998</v>
       </c>
       <c r="AA27">
-        <v>398.44600000000003</v>
+        <v>143.851</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42888</v>
+        <v>39234</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>374.39</v>
+        <v>152.505</v>
       </c>
       <c r="D28">
-        <v>1772.19</v>
+        <v>745.577</v>
       </c>
       <c r="E28">
-        <v>901.452</v>
+        <v>318.08999999999997</v>
       </c>
       <c r="F28">
-        <v>1532.83</v>
+        <v>654.36300000000006</v>
       </c>
       <c r="G28">
-        <v>6052.1970000000001</v>
+        <v>2952.5210000000002</v>
       </c>
       <c r="H28">
-        <v>13364.9</v>
+        <v>6135.9489999999996</v>
       </c>
       <c r="I28">
-        <v>77.905000000000001</v>
+        <v>38.204000000000001</v>
       </c>
       <c r="J28">
-        <v>1888.3979999999999</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3047.8960000000002</v>
+        <v>779.08100000000002</v>
       </c>
       <c r="O28">
-        <v>5560.902</v>
+        <v>940.23699999999997</v>
       </c>
       <c r="P28">
-        <v>1888.3979999999999</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>248.054</v>
+        <v>375.58699999999999</v>
       </c>
       <c r="R28">
-        <v>42888</v>
+        <v>39234</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7803.9979999999996</v>
+        <v>5195.7120000000004</v>
       </c>
       <c r="U28">
-        <v>1316.95</v>
+        <v>901.61699999999996</v>
       </c>
       <c r="V28">
-        <v>644.827</v>
+        <v>345.399</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-314.43200000000002</v>
+        <v>-126.34699999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-32.25</v>
+        <v>320.20499999999998</v>
       </c>
       <c r="AA28">
-        <v>374.39</v>
+        <v>152.505</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42979</v>
+        <v>39325</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>419.56900000000002</v>
+        <v>205.24299999999999</v>
       </c>
       <c r="D29">
-        <v>1841.0740000000001</v>
+        <v>851.68600000000004</v>
       </c>
       <c r="E29">
-        <v>1006.187</v>
+        <v>260.95299999999997</v>
       </c>
       <c r="F29">
-        <v>1578.152</v>
+        <v>759.06500000000005</v>
       </c>
       <c r="G29">
-        <v>6581.0569999999998</v>
+        <v>2505.23</v>
       </c>
       <c r="H29">
-        <v>13906.815000000001</v>
+        <v>5666.4610000000002</v>
       </c>
       <c r="I29">
-        <v>90.326999999999998</v>
+        <v>33.962000000000003</v>
       </c>
       <c r="J29">
-        <v>1889.2180000000001</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3216.1439999999998</v>
+        <v>807.74400000000003</v>
       </c>
       <c r="O29">
-        <v>5736.3810000000003</v>
+        <v>933.46100000000001</v>
       </c>
       <c r="P29">
-        <v>1889.2180000000001</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>457.6</v>
+        <v>-342.334</v>
       </c>
       <c r="R29">
-        <v>42979</v>
+        <v>39325</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8170.4340000000002</v>
+        <v>4733</v>
       </c>
       <c r="U29">
-        <v>1774.55</v>
+        <v>559.28300000000002</v>
       </c>
       <c r="V29">
-        <v>704.43600000000004</v>
+        <v>424.67399999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-218.29900000000001</v>
+        <v>-710.35699999999997</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>17.423999999999999</v>
+        <v>-23.146000000000001</v>
       </c>
       <c r="AA29">
-        <v>419.56900000000002</v>
+        <v>205.24299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43070</v>
+        <v>39416</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>501.54899999999998</v>
+        <v>222.208</v>
       </c>
       <c r="D30">
-        <v>2006.595</v>
+        <v>911.21100000000001</v>
       </c>
       <c r="E30">
-        <v>1217.9680000000001</v>
+        <v>318.14499999999998</v>
       </c>
       <c r="F30">
-        <v>1735.723</v>
+        <v>812.61500000000001</v>
       </c>
       <c r="G30">
-        <v>7247.8130000000001</v>
+        <v>2572.8510000000001</v>
       </c>
       <c r="H30">
-        <v>14535.556</v>
+        <v>5713.6790000000001</v>
       </c>
       <c r="I30">
-        <v>113.538</v>
+        <v>41.723999999999997</v>
       </c>
       <c r="J30">
-        <v>1882.479</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3527.4569999999999</v>
+        <v>852.41</v>
       </c>
       <c r="O30">
-        <v>6075.6869999999999</v>
+        <v>1063.6969999999999</v>
       </c>
       <c r="P30">
-        <v>1882.479</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>531.52200000000005</v>
+        <v>387.13900000000001</v>
       </c>
       <c r="R30">
-        <v>43070</v>
+        <v>39416</v>
       </c>
       <c r="S30">
-        <v>17973</v>
+        <v>6794</v>
       </c>
       <c r="T30">
-        <v>8459.8690000000006</v>
+        <v>4649.982</v>
       </c>
       <c r="U30">
-        <v>2306.0720000000001</v>
+        <v>946.42200000000003</v>
       </c>
       <c r="V30">
-        <v>833.22</v>
+        <v>399.86</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-319.50900000000001</v>
+        <v>-307.80700000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>58.05</v>
+        <v>331.83800000000002</v>
       </c>
       <c r="AA30">
-        <v>501.54899999999998</v>
+        <v>222.208</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43161</v>
+        <v>39507</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>583.07600000000002</v>
+        <v>219.37899999999999</v>
       </c>
       <c r="D31">
-        <v>2078.9470000000001</v>
+        <v>890.44500000000005</v>
       </c>
       <c r="E31">
-        <v>1062.69</v>
+        <v>293.26600000000002</v>
       </c>
       <c r="F31">
-        <v>1820.0450000000001</v>
+        <v>807.97</v>
       </c>
       <c r="G31">
-        <v>7480.8140000000003</v>
+        <v>2226.2719999999999</v>
       </c>
       <c r="H31">
-        <v>14973.485000000001</v>
+        <v>5340.9009999999998</v>
       </c>
       <c r="I31">
-        <v>131.09</v>
+        <v>38.817999999999998</v>
       </c>
       <c r="J31">
-        <v>1883.3109999999999</v>
+        <v>450</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.30399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3536.4690000000001</v>
+        <v>669.54600000000005</v>
       </c>
       <c r="O31">
-        <v>6339.4570000000003</v>
+        <v>1526.751</v>
       </c>
       <c r="P31">
-        <v>1883.3109999999999</v>
+        <v>450</v>
       </c>
       <c r="Q31">
-        <v>360.90899999999999</v>
+        <v>86.311000000000007</v>
       </c>
       <c r="R31">
-        <v>43161</v>
+        <v>39507</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8634.0280000000002</v>
+        <v>3814.15</v>
       </c>
       <c r="U31">
-        <v>2666.9810000000002</v>
+        <v>1032.7329999999999</v>
       </c>
       <c r="V31">
-        <v>989.601</v>
+        <v>399.3</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-541.27300000000002</v>
+        <v>-646.51199999999994</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1.38</v>
+        <v>355.03899999999999</v>
       </c>
       <c r="AA31">
-        <v>583.07600000000002</v>
+        <v>219.37899999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43252</v>
+        <v>39598</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>663.16700000000003</v>
+        <v>214.91</v>
       </c>
       <c r="D32">
-        <v>2195.36</v>
+        <v>886.88599999999997</v>
       </c>
       <c r="E32">
-        <v>1074.877</v>
+        <v>321.14999999999998</v>
       </c>
       <c r="F32">
-        <v>1914.0160000000001</v>
+        <v>804.02</v>
       </c>
       <c r="G32">
-        <v>7741.4440000000004</v>
+        <v>2381.4690000000001</v>
       </c>
       <c r="H32">
-        <v>15163.404</v>
+        <v>5460.4170000000004</v>
       </c>
       <c r="I32">
-        <v>117.194</v>
+        <v>37.453000000000003</v>
       </c>
       <c r="J32">
-        <v>1884.133</v>
+        <v>350</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3728.9560000000001</v>
+        <v>672.76499999999999</v>
       </c>
       <c r="O32">
-        <v>6457.8209999999999</v>
+        <v>1419.76</v>
       </c>
       <c r="P32">
-        <v>1884.133</v>
+        <v>350</v>
       </c>
       <c r="Q32">
-        <v>321.005</v>
+        <v>129.72</v>
       </c>
       <c r="R32">
-        <v>43252</v>
+        <v>39598</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8705.5830000000005</v>
+        <v>4040.6570000000002</v>
       </c>
       <c r="U32">
-        <v>2987.9859999999999</v>
+        <v>1162.453</v>
       </c>
       <c r="V32">
-        <v>976.40599999999995</v>
+        <v>331.791</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-717.36500000000001</v>
+        <v>-131.875</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>127.60899999999999</v>
+        <v>-46.698999999999998</v>
       </c>
       <c r="AA32">
-        <v>663.16700000000003</v>
+        <v>214.91</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>666.29100000000005</v>
+        <v>191.608</v>
       </c>
       <c r="D33">
-        <v>2291.076</v>
+        <v>887.25699999999995</v>
       </c>
       <c r="E33">
-        <v>1044.5070000000001</v>
+        <v>327.97</v>
       </c>
       <c r="F33">
-        <v>1995.5840000000001</v>
+        <v>776.40599999999995</v>
       </c>
       <c r="G33">
-        <v>6300.9129999999996</v>
+        <v>2517.12</v>
       </c>
       <c r="H33">
-        <v>15395.62</v>
+        <v>5638.75</v>
       </c>
       <c r="I33">
-        <v>145.566</v>
+        <v>38.15</v>
       </c>
       <c r="J33">
-        <v>1884.9659999999999</v>
+        <v>350</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3792.027</v>
+        <v>661.66300000000001</v>
       </c>
       <c r="O33">
-        <v>6533.6949999999997</v>
+        <v>1267.308</v>
       </c>
       <c r="P33">
-        <v>1884.9659999999999</v>
+        <v>350</v>
       </c>
       <c r="Q33">
-        <v>-1240.8420000000001</v>
+        <v>-28.19</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8861.9249999999993</v>
+        <v>4371.442</v>
       </c>
       <c r="U33">
-        <v>1747.144</v>
+        <v>1134.2629999999999</v>
       </c>
       <c r="V33">
-        <v>955.30399999999997</v>
+        <v>211.34200000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-671.66099999999994</v>
+        <v>30.741</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>161.65100000000001</v>
+        <v>-225.434</v>
       </c>
       <c r="AA33">
-        <v>666.29100000000005</v>
+        <v>191.608</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>678.24</v>
+        <v>245.917</v>
       </c>
       <c r="D34">
-        <v>2464.625</v>
+        <v>915.30100000000004</v>
       </c>
       <c r="E34">
-        <v>1315.578</v>
+        <v>467.23399999999998</v>
       </c>
       <c r="F34">
-        <v>2105.364</v>
+        <v>828.86300000000006</v>
       </c>
       <c r="G34">
-        <v>4857.0389999999998</v>
+        <v>2735.1030000000001</v>
       </c>
       <c r="H34">
-        <v>18768.682000000001</v>
+        <v>5821.598</v>
       </c>
       <c r="I34">
-        <v>186.25800000000001</v>
+        <v>55.84</v>
       </c>
       <c r="J34">
-        <v>4134.5439999999999</v>
+        <v>350</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>4301.1260000000002</v>
+        <v>762.59900000000005</v>
       </c>
       <c r="O34">
-        <v>9406.5679999999993</v>
+        <v>1411.2439999999999</v>
       </c>
       <c r="P34">
-        <v>4134.5439999999999</v>
+        <v>350</v>
       </c>
       <c r="Q34">
-        <v>-104.369</v>
+        <v>-247.81299999999999</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="S34">
-        <v>21357</v>
+        <v>7544</v>
       </c>
       <c r="T34">
-        <v>9362.1139999999996</v>
+        <v>4410.3540000000003</v>
       </c>
       <c r="U34">
-        <v>1642.7750000000001</v>
+        <v>886.45</v>
       </c>
       <c r="V34">
-        <v>1107.9929999999999</v>
+        <v>338.24900000000002</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>1924.731</v>
+        <v>-273.92099999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1605.0260000000001</v>
+        <v>-272.21100000000001</v>
       </c>
       <c r="AA34">
-        <v>678.24</v>
+        <v>245.917</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43525</v>
+        <v>39871</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>674</v>
+        <v>156.435</v>
       </c>
       <c r="D35">
-        <v>2601</v>
+        <v>786.39</v>
       </c>
       <c r="E35">
-        <v>1342.3430000000001</v>
+        <v>300.048</v>
       </c>
       <c r="F35">
-        <v>2204</v>
+        <v>709.03700000000003</v>
       </c>
       <c r="G35">
-        <v>5133.7150000000001</v>
+        <v>2868.991</v>
       </c>
       <c r="H35">
-        <v>19505.536</v>
+        <v>5887.5959999999995</v>
       </c>
       <c r="I35">
-        <v>145.292</v>
+        <v>41.415999999999997</v>
       </c>
       <c r="J35">
-        <v>3243.1109999999999</v>
+        <v>350</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>5313.7359999999999</v>
+        <v>636.86500000000001</v>
       </c>
       <c r="O35">
-        <v>9634.0509999999995</v>
+        <v>1276.4359999999999</v>
       </c>
       <c r="P35">
-        <v>4135.8649999999998</v>
+        <v>350</v>
       </c>
       <c r="Q35">
-        <v>96</v>
+        <v>262.47500000000002</v>
       </c>
       <c r="R35">
-        <v>43525</v>
+        <v>39871</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9871.4850000000006</v>
+        <v>4611.16</v>
       </c>
       <c r="U35">
-        <v>1738.846</v>
+        <v>1148.925</v>
       </c>
       <c r="V35">
-        <v>1013</v>
+        <v>365.74299999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-784</v>
+        <v>28.675000000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>33</v>
+        <v>-115.646</v>
       </c>
       <c r="AA35">
-        <v>674</v>
+        <v>156.435</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>633</v>
+        <v>126.071</v>
       </c>
       <c r="D36">
-        <v>2744</v>
+        <v>704.673</v>
       </c>
       <c r="E36">
-        <v>1272.6679999999999</v>
+        <v>262.59800000000001</v>
       </c>
       <c r="F36">
-        <v>2337</v>
+        <v>632.66499999999996</v>
       </c>
       <c r="G36">
-        <v>5342.6450000000004</v>
+        <v>3087.7689999999998</v>
       </c>
       <c r="H36">
-        <v>19665.909</v>
+        <v>6063.7449999999999</v>
       </c>
       <c r="I36">
-        <v>169.101</v>
+        <v>42.258000000000003</v>
       </c>
       <c r="J36">
-        <v>990.90200000000004</v>
+        <v>350</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>7687.0969999999998</v>
+        <v>613.63199999999995</v>
       </c>
       <c r="O36">
-        <v>9734.2160000000003</v>
+        <v>1262.704</v>
       </c>
       <c r="P36">
-        <v>4136.57</v>
+        <v>350</v>
       </c>
       <c r="Q36">
-        <v>344</v>
+        <v>77.855000000000004</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>9931.6929999999993</v>
+        <v>4801.0410000000002</v>
       </c>
       <c r="U36">
-        <v>2082.91</v>
+        <v>1226.78</v>
       </c>
       <c r="V36">
-        <v>1110</v>
+        <v>261.529</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-772</v>
+        <v>20.215</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>156</v>
+        <v>-210.44</v>
       </c>
       <c r="AA36">
-        <v>633</v>
+        <v>126.071</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43707</v>
+        <v>40053</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>793</v>
+        <v>136.04499999999999</v>
       </c>
       <c r="D37">
-        <v>2834</v>
+        <v>697.50699999999995</v>
       </c>
       <c r="E37">
-        <v>1371.6969999999999</v>
+        <v>281.80700000000002</v>
       </c>
       <c r="F37">
-        <v>2418</v>
+        <v>632.46</v>
       </c>
       <c r="G37">
-        <v>5750.0959999999995</v>
+        <v>2990.9340000000002</v>
       </c>
       <c r="H37">
-        <v>20054.88</v>
+        <v>5961.96</v>
       </c>
       <c r="I37">
-        <v>186.999</v>
+        <v>48.415999999999997</v>
       </c>
       <c r="J37">
-        <v>988.42899999999997</v>
+        <v>350</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>7802.9660000000003</v>
+        <v>614.38300000000004</v>
       </c>
       <c r="O37">
-        <v>9812.107</v>
+        <v>1267.402</v>
       </c>
       <c r="P37">
-        <v>4137.4870000000001</v>
+        <v>350</v>
       </c>
       <c r="Q37">
-        <v>126</v>
+        <v>-94.635999999999996</v>
       </c>
       <c r="R37">
-        <v>43707</v>
+        <v>40053</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10242.772999999999</v>
+        <v>4694.558</v>
       </c>
       <c r="U37">
-        <v>2209.047</v>
+        <v>1132.144</v>
       </c>
       <c r="V37">
-        <v>922</v>
+        <v>236.68100000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-624</v>
+        <v>-276.60000000000002</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-76</v>
+        <v>2.266</v>
       </c>
       <c r="AA37">
-        <v>793</v>
+        <v>136.04499999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43798</v>
+        <v>40144</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>851</v>
+        <v>-32.042999999999999</v>
       </c>
       <c r="D38">
-        <v>2992</v>
+        <v>757.28300000000002</v>
       </c>
       <c r="E38">
-        <v>1535</v>
+        <v>410.87900000000002</v>
       </c>
       <c r="F38">
-        <v>2540</v>
+        <v>674.95899999999995</v>
       </c>
       <c r="G38">
-        <v>6495</v>
+        <v>2473.6239999999998</v>
       </c>
       <c r="H38">
-        <v>20762</v>
+        <v>7282.2370000000001</v>
       </c>
       <c r="I38">
-        <v>209</v>
+        <v>58.904000000000003</v>
       </c>
       <c r="J38">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>8191</v>
+        <v>844.553</v>
       </c>
       <c r="O38">
-        <v>10232</v>
+        <v>2391.6689999999999</v>
       </c>
       <c r="P38">
-        <v>4138</v>
+        <v>1000</v>
       </c>
       <c r="Q38">
-        <v>441</v>
+        <v>-132.65700000000001</v>
       </c>
       <c r="R38">
-        <v>43798</v>
+        <v>40144</v>
       </c>
       <c r="S38">
-        <v>22634</v>
+        <v>8660</v>
       </c>
       <c r="T38">
-        <v>10530</v>
+        <v>4890.5680000000002</v>
       </c>
       <c r="U38">
-        <v>2650</v>
+        <v>999.48699999999997</v>
       </c>
       <c r="V38">
-        <v>1377</v>
+        <v>253.84100000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-766</v>
+        <v>705.346</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>-73</v>
+        <v>526.21400000000006</v>
       </c>
       <c r="AA38">
-        <v>851</v>
+        <v>-32.042999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43889</v>
+        <v>40242</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>955</v>
+        <v>127.154</v>
       </c>
       <c r="D39">
-        <v>3091</v>
+        <v>858.7</v>
       </c>
       <c r="E39">
-        <v>1389</v>
+        <v>350.577</v>
       </c>
       <c r="F39">
-        <v>2639</v>
+        <v>769.33199999999999</v>
       </c>
       <c r="G39">
-        <v>6455</v>
+        <v>3177.2190000000001</v>
       </c>
       <c r="H39">
-        <v>21214</v>
+        <v>7945.0690000000004</v>
       </c>
       <c r="I39">
-        <v>265</v>
+        <v>44.188000000000002</v>
       </c>
       <c r="J39">
-        <v>4113</v>
+        <v>1493.546</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3150</v>
+        <v>-1000.058</v>
       </c>
       <c r="N39">
-        <v>5228</v>
+        <v>900.774</v>
       </c>
       <c r="O39">
-        <v>10749</v>
+        <v>2773.6489999999999</v>
       </c>
       <c r="P39">
-        <v>4711</v>
+        <v>1493.546</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>589.95500000000004</v>
       </c>
       <c r="R39">
-        <v>43889</v>
+        <v>40242</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10465</v>
+        <v>5171.42</v>
       </c>
       <c r="U39">
-        <v>2688</v>
+        <v>1589.442</v>
       </c>
       <c r="V39">
-        <v>1325</v>
+        <v>259.86099999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-1233</v>
+        <v>540.101</v>
       </c>
       <c r="Y39">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>46</v>
+        <v>-185.51300000000001</v>
       </c>
       <c r="AA39">
-        <v>955</v>
+        <v>127.154</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43980</v>
+        <v>40333</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1100</v>
+        <v>148.61099999999999</v>
       </c>
       <c r="D40">
-        <v>3128</v>
+        <v>943.03499999999997</v>
       </c>
       <c r="E40">
-        <v>1366</v>
+        <v>439.15100000000001</v>
       </c>
       <c r="F40">
-        <v>2713</v>
+        <v>835.202</v>
       </c>
       <c r="G40">
-        <v>6649</v>
+        <v>3276.0709999999999</v>
       </c>
       <c r="H40">
-        <v>21603</v>
+        <v>8006.9309999999996</v>
       </c>
       <c r="I40">
-        <v>289</v>
+        <v>50.273000000000003</v>
       </c>
       <c r="J40">
-        <v>4114</v>
+        <v>1493.6510000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5164</v>
+        <v>969.90800000000002</v>
       </c>
       <c r="O40">
-        <v>10722</v>
+        <v>2828.1759999999999</v>
       </c>
       <c r="P40">
-        <v>4697</v>
+        <v>1493.6510000000001</v>
       </c>
       <c r="Q40">
-        <v>356</v>
+        <v>-451.83600000000001</v>
       </c>
       <c r="R40">
-        <v>43980</v>
+        <v>40333</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10881</v>
+        <v>5178.7550000000001</v>
       </c>
       <c r="U40">
-        <v>3044</v>
+        <v>1137.606</v>
       </c>
       <c r="V40">
-        <v>1184</v>
+        <v>251.09</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-901</v>
+        <v>-214.857</v>
       </c>
       <c r="Y40">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>176</v>
+        <v>-431.11099999999999</v>
       </c>
       <c r="AA40">
-        <v>1100</v>
+        <v>148.61099999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44071</v>
+        <v>40424</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>955</v>
+        <v>230.065</v>
       </c>
       <c r="D41">
-        <v>3225</v>
+        <v>990.31899999999996</v>
       </c>
       <c r="E41">
-        <v>1318</v>
+        <v>484.55</v>
       </c>
       <c r="F41">
-        <v>2798</v>
+        <v>891.23500000000001</v>
       </c>
       <c r="G41">
-        <v>7387</v>
+        <v>3236.415</v>
       </c>
       <c r="H41">
-        <v>22414</v>
+        <v>7947.0290000000005</v>
       </c>
       <c r="I41">
-        <v>229</v>
+        <v>56.465000000000003</v>
       </c>
       <c r="J41">
-        <v>4116</v>
+        <v>1493.81</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5130</v>
+        <v>967.202</v>
       </c>
       <c r="O41">
-        <v>10701</v>
+        <v>2862.1709999999998</v>
       </c>
       <c r="P41">
-        <v>4726</v>
+        <v>1524.45</v>
       </c>
       <c r="Q41">
-        <v>723</v>
+        <v>-323.45699999999999</v>
       </c>
       <c r="R41">
-        <v>44071</v>
+        <v>40424</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>11713</v>
+        <v>5084.8580000000002</v>
       </c>
       <c r="U41">
-        <v>3767</v>
+        <v>814.149</v>
       </c>
       <c r="V41">
-        <v>1436</v>
+        <v>291.423</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-414</v>
+        <v>-354.24400000000003</v>
       </c>
       <c r="Y41">
-        <v>520</v>
+        <v>21.942</v>
       </c>
       <c r="Z41">
-        <v>-189</v>
+        <v>-259.8</v>
       </c>
       <c r="AA41">
-        <v>955</v>
+        <v>230.065</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44162</v>
+        <v>40515</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>268.85000000000002</v>
+      </c>
+      <c r="D42">
+        <v>1007.946</v>
+      </c>
+      <c r="E42">
+        <v>554.32799999999997</v>
+      </c>
+      <c r="F42">
+        <v>900.72900000000004</v>
+      </c>
+      <c r="G42">
+        <v>3216.05</v>
+      </c>
+      <c r="H42">
+        <v>8141.1480000000001</v>
+      </c>
+      <c r="I42">
+        <v>52.432000000000002</v>
+      </c>
+      <c r="J42">
+        <v>1513.662</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1068.088</v>
+      </c>
+      <c r="O42">
+        <v>2948.761</v>
+      </c>
+      <c r="P42">
+        <v>1522.461</v>
+      </c>
+      <c r="Q42">
+        <v>-64.257999999999996</v>
+      </c>
+      <c r="R42">
+        <v>40515</v>
+      </c>
+      <c r="S42">
+        <v>9117</v>
+      </c>
+      <c r="T42">
+        <v>5192.3869999999997</v>
+      </c>
+      <c r="U42">
+        <v>749.89099999999996</v>
+      </c>
+      <c r="V42">
+        <v>310.62099999999998</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-186.262</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>45.750999999999998</v>
+      </c>
+      <c r="AA42">
+        <v>268.85000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40606</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>234.59100000000001</v>
+      </c>
+      <c r="D43">
+        <v>1027.7059999999999</v>
+      </c>
+      <c r="E43">
+        <v>533.35299999999995</v>
+      </c>
+      <c r="F43">
+        <v>920.06700000000001</v>
+      </c>
+      <c r="G43">
+        <v>3350.7979999999998</v>
+      </c>
+      <c r="H43">
+        <v>8310.0239999999994</v>
+      </c>
+      <c r="I43">
+        <v>54.741999999999997</v>
+      </c>
+      <c r="J43">
+        <v>1494.13</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2.169</v>
+      </c>
+      <c r="N43">
+        <v>985.53200000000004</v>
+      </c>
+      <c r="O43">
+        <v>2884.6170000000002</v>
+      </c>
+      <c r="P43">
+        <v>1520.453</v>
+      </c>
+      <c r="Q43">
+        <v>150.26499999999999</v>
+      </c>
+      <c r="R43">
+        <v>40606</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5425.4070000000002</v>
+      </c>
+      <c r="U43">
+        <v>900.15599999999995</v>
+      </c>
+      <c r="V43">
+        <v>332.10199999999998</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-86.518000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>17.422999999999998</v>
+      </c>
+      <c r="Z43">
+        <v>-26.007999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>234.59100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40697</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>229.43600000000001</v>
+      </c>
+      <c r="D44">
+        <v>1023.179</v>
+      </c>
+      <c r="E44">
+        <v>568.57000000000005</v>
+      </c>
+      <c r="F44">
+        <v>913.97799999999995</v>
+      </c>
+      <c r="G44">
+        <v>3389.3180000000002</v>
+      </c>
+      <c r="H44">
+        <v>8339.7160000000003</v>
+      </c>
+      <c r="I44">
+        <v>60.533000000000001</v>
+      </c>
+      <c r="J44">
+        <v>1494.2950000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1050.3789999999999</v>
+      </c>
+      <c r="O44">
+        <v>2950.3009999999999</v>
+      </c>
+      <c r="P44">
+        <v>1518.431</v>
+      </c>
+      <c r="Q44">
+        <v>-72.680999999999997</v>
+      </c>
+      <c r="R44">
+        <v>40697</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5389.415</v>
+      </c>
+      <c r="U44">
+        <v>827.47500000000002</v>
+      </c>
+      <c r="V44">
+        <v>389.33100000000002</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-365.96</v>
+      </c>
+      <c r="Y44">
+        <v>15.132999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>-64.974000000000004</v>
+      </c>
+      <c r="AA44">
+        <v>229.43600000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40788</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>195.101</v>
+      </c>
+      <c r="D45">
+        <v>1013.212</v>
+      </c>
+      <c r="E45">
+        <v>559.32000000000005</v>
+      </c>
+      <c r="F45">
+        <v>908.55799999999999</v>
+      </c>
+      <c r="G45">
+        <v>3469.1959999999999</v>
+      </c>
+      <c r="H45">
+        <v>8492.7579999999998</v>
+      </c>
+      <c r="I45">
+        <v>65.236000000000004</v>
+      </c>
+      <c r="J45">
+        <v>1494.461</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1032.259</v>
+      </c>
+      <c r="O45">
+        <v>2928.8</v>
+      </c>
+      <c r="P45">
+        <v>1516.385</v>
+      </c>
+      <c r="Q45">
+        <v>-58.262999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40788</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5563.9579999999996</v>
+      </c>
+      <c r="U45">
+        <v>769.21199999999999</v>
+      </c>
+      <c r="V45">
+        <v>325.12799999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-97.680999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>12.817</v>
+      </c>
+      <c r="Z45">
+        <v>-164.22200000000001</v>
+      </c>
+      <c r="AA45">
+        <v>195.101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40879</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>173.71899999999999</v>
+      </c>
+      <c r="D46">
+        <v>1152.1610000000001</v>
+      </c>
+      <c r="E46">
+        <v>634.37300000000005</v>
+      </c>
+      <c r="F46">
+        <v>1035.7819999999999</v>
+      </c>
+      <c r="G46">
+        <v>3771.451</v>
+      </c>
+      <c r="H46">
+        <v>8991.1830000000009</v>
+      </c>
+      <c r="I46">
+        <v>86.66</v>
+      </c>
+      <c r="J46">
+        <v>1494.627</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1250.779</v>
+      </c>
+      <c r="O46">
+        <v>3208.07</v>
+      </c>
+      <c r="P46">
+        <v>1514.308</v>
+      </c>
+      <c r="Q46">
+        <v>220.28800000000001</v>
+      </c>
+      <c r="R46">
+        <v>40879</v>
+      </c>
+      <c r="S46">
+        <v>9925</v>
+      </c>
+      <c r="T46">
+        <v>5783.1130000000003</v>
+      </c>
+      <c r="U46">
+        <v>989.5</v>
+      </c>
+      <c r="V46">
+        <v>496.75299999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>10.468999999999999</v>
+      </c>
+      <c r="Z46">
+        <v>-32.857999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>173.71899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40970</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>185.209</v>
+      </c>
+      <c r="D47">
+        <v>1045.22</v>
+      </c>
+      <c r="E47">
+        <v>512.21100000000001</v>
+      </c>
+      <c r="F47">
+        <v>936.95500000000004</v>
+      </c>
+      <c r="G47">
+        <v>3505.6550000000002</v>
+      </c>
+      <c r="H47">
+        <v>9132.7080000000005</v>
+      </c>
+      <c r="I47">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J47">
+        <v>1494.7929999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2.2639999999999998</v>
+      </c>
+      <c r="N47">
+        <v>1115.0219999999999</v>
+      </c>
+      <c r="O47">
+        <v>3146.4059999999999</v>
+      </c>
+      <c r="P47">
+        <v>1512.211</v>
+      </c>
+      <c r="Q47">
+        <v>-188.23699999999999</v>
+      </c>
+      <c r="R47">
+        <v>40970</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5986.3019999999997</v>
+      </c>
+      <c r="U47">
+        <v>801.26300000000003</v>
+      </c>
+      <c r="V47">
+        <v>314.363</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-68.525000000000006</v>
+      </c>
+      <c r="Y47">
+        <v>8.1</v>
+      </c>
+      <c r="Z47">
+        <v>-33.435000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>185.209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>223.876</v>
+      </c>
+      <c r="D48">
+        <v>1124.4490000000001</v>
+      </c>
+      <c r="E48">
+        <v>529.39099999999996</v>
+      </c>
+      <c r="F48">
+        <v>993.53099999999995</v>
+      </c>
+      <c r="G48">
+        <v>3770.8069999999998</v>
+      </c>
+      <c r="H48">
+        <v>9365.8320000000003</v>
+      </c>
+      <c r="I48">
+        <v>69.415999999999997</v>
+      </c>
+      <c r="J48">
+        <v>1494.9939999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1245.644</v>
+      </c>
+      <c r="O48">
+        <v>3266.1860000000001</v>
+      </c>
+      <c r="P48">
+        <v>1510.0940000000001</v>
+      </c>
+      <c r="Q48">
+        <v>149.97499999999999</v>
+      </c>
+      <c r="R48">
+        <v>41061</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>6099.6459999999997</v>
+      </c>
+      <c r="U48">
+        <v>951.23800000000006</v>
+      </c>
+      <c r="V48">
+        <v>448.21800000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-148.73500000000001</v>
+      </c>
+      <c r="Y48">
+        <v>5.6740000000000004</v>
+      </c>
+      <c r="Z48">
+        <v>-87.432000000000002</v>
+      </c>
+      <c r="AA48">
+        <v>223.876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>201.357</v>
+      </c>
+      <c r="D49">
+        <v>1080.58</v>
+      </c>
+      <c r="E49">
+        <v>566.67100000000005</v>
+      </c>
+      <c r="F49">
+        <v>960.95899999999995</v>
+      </c>
+      <c r="G49">
+        <v>4010.1729999999998</v>
+      </c>
+      <c r="H49">
+        <v>9630.0130000000008</v>
+      </c>
+      <c r="I49">
+        <v>58.445999999999998</v>
+      </c>
+      <c r="J49">
+        <v>1495.174</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1169.71</v>
+      </c>
+      <c r="O49">
+        <v>3191.32</v>
+      </c>
+      <c r="P49">
+        <v>1510.9739999999999</v>
+      </c>
+      <c r="Q49">
+        <v>211.142</v>
+      </c>
+      <c r="R49">
+        <v>41152</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>6438.6930000000002</v>
+      </c>
+      <c r="U49">
+        <v>1162.3800000000001</v>
+      </c>
+      <c r="V49">
+        <v>263.33999999999997</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>62.956000000000003</v>
+      </c>
+      <c r="Y49">
+        <v>4.7069999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>-41.838000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>201.357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>222.333</v>
+      </c>
+      <c r="D50">
+        <v>1153.4280000000001</v>
+      </c>
+      <c r="E50">
+        <v>617.23299999999995</v>
+      </c>
+      <c r="F50">
+        <v>1028.45</v>
+      </c>
+      <c r="G50">
+        <v>4397.0659999999998</v>
+      </c>
+      <c r="H50">
+        <v>10040.228999999999</v>
+      </c>
+      <c r="I50">
+        <v>49.759</v>
+      </c>
+      <c r="J50">
+        <v>1495.3119999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1271.752</v>
+      </c>
+      <c r="O50">
+        <v>3375.047</v>
+      </c>
+      <c r="P50">
+        <v>1508.155</v>
+      </c>
+      <c r="Q50">
+        <v>262.67200000000003</v>
+      </c>
+      <c r="R50">
+        <v>41243</v>
+      </c>
+      <c r="S50">
+        <v>11144</v>
+      </c>
+      <c r="T50">
+        <v>6665.1819999999998</v>
+      </c>
+      <c r="U50">
+        <v>1425.0519999999999</v>
+      </c>
+      <c r="V50">
+        <v>473.65899999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-80.418999999999997</v>
+      </c>
+      <c r="Y50">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>-47.686</v>
+      </c>
+      <c r="AA50">
+        <v>222.333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>65.117000000000004</v>
+      </c>
+      <c r="D51">
+        <v>1007.873</v>
+      </c>
+      <c r="E51">
+        <v>485.80099999999999</v>
+      </c>
+      <c r="F51">
+        <v>851.18899999999996</v>
+      </c>
+      <c r="G51">
+        <v>4373.0829999999996</v>
+      </c>
+      <c r="H51">
+        <v>10165.710999999999</v>
+      </c>
+      <c r="I51">
+        <v>72.724999999999994</v>
+      </c>
+      <c r="J51">
+        <v>1495.4860000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2.5070000000000001</v>
+      </c>
+      <c r="N51">
+        <v>1264.3230000000001</v>
+      </c>
+      <c r="O51">
+        <v>3360.373</v>
+      </c>
+      <c r="P51">
+        <v>1531.4090000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-118.67</v>
+      </c>
+      <c r="R51">
+        <v>41334</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6805.3379999999997</v>
+      </c>
+      <c r="U51">
+        <v>1306.3820000000001</v>
+      </c>
+      <c r="V51">
+        <v>322.03100000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>11.404999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-289.56799999999998</v>
+      </c>
+      <c r="AA51">
+        <v>65.117000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>76.546000000000006</v>
+      </c>
+      <c r="D52">
+        <v>1010.549</v>
+      </c>
+      <c r="E52">
+        <v>470.05200000000002</v>
+      </c>
+      <c r="F52">
+        <v>875.26800000000003</v>
+      </c>
+      <c r="G52">
+        <v>4557.6570000000002</v>
+      </c>
+      <c r="H52">
+        <v>10280.369000000001</v>
+      </c>
+      <c r="I52">
+        <v>53.685000000000002</v>
+      </c>
+      <c r="J52">
+        <v>1495.6590000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1264.855</v>
+      </c>
+      <c r="O52">
+        <v>3353.067</v>
+      </c>
+      <c r="P52">
+        <v>1525.643</v>
+      </c>
+      <c r="Q52">
+        <v>-59.972000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41425</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6927.3019999999997</v>
+      </c>
+      <c r="U52">
+        <v>1246.4100000000001</v>
+      </c>
+      <c r="V52">
+        <v>299.14800000000002</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-22.641999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>9.9009999999999998</v>
+      </c>
+      <c r="Z52">
+        <v>-288.19</v>
+      </c>
+      <c r="AA52">
+        <v>76.546000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41516</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>83.001999999999995</v>
+      </c>
+      <c r="D53">
+        <v>995.11900000000003</v>
+      </c>
+      <c r="E53">
+        <v>522.40899999999999</v>
+      </c>
+      <c r="F53">
+        <v>848.04300000000001</v>
+      </c>
+      <c r="G53">
+        <v>3886.1239999999998</v>
+      </c>
+      <c r="H53">
+        <v>10234.156000000001</v>
+      </c>
+      <c r="I53">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="J53">
+        <v>1495.847</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1329.117</v>
+      </c>
+      <c r="O53">
+        <v>3399.3969999999999</v>
+      </c>
+      <c r="P53">
+        <v>1519.8309999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-427.32499999999999</v>
+      </c>
+      <c r="R53">
+        <v>41516</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6834.759</v>
+      </c>
+      <c r="U53">
+        <v>819.08500000000004</v>
+      </c>
+      <c r="V53">
+        <v>215.52500000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-247.37100000000001</v>
+      </c>
+      <c r="Y53">
+        <v>6.5220000000000002</v>
+      </c>
+      <c r="Z53">
+        <v>257.58199999999999</v>
+      </c>
+      <c r="AA53">
+        <v>83.001999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="D54">
+        <v>1041.6990000000001</v>
+      </c>
+      <c r="E54">
+        <v>599.82000000000005</v>
+      </c>
+      <c r="F54">
+        <v>894.18299999999999</v>
+      </c>
+      <c r="G54">
+        <v>4045.9290000000001</v>
+      </c>
+      <c r="H54">
+        <v>10380.298000000001</v>
+      </c>
+      <c r="I54">
+        <v>62.095999999999997</v>
+      </c>
+      <c r="J54">
+        <v>1499.297</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1525.6479999999999</v>
+      </c>
+      <c r="O54">
+        <v>3655.6640000000002</v>
+      </c>
+      <c r="P54">
+        <v>1513.973</v>
+      </c>
+      <c r="Q54">
+        <v>15.471</v>
+      </c>
+      <c r="R54">
+        <v>41607</v>
+      </c>
+      <c r="S54">
+        <v>11847</v>
+      </c>
+      <c r="T54">
+        <v>6724.634</v>
+      </c>
+      <c r="U54">
+        <v>834.55600000000004</v>
+      </c>
+      <c r="V54">
+        <v>314.98200000000003</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-300.52999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>11.06</v>
+      </c>
+      <c r="AA54">
+        <v>65.319999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>47.045999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1000.12</v>
+      </c>
+      <c r="E55">
+        <v>510.50700000000001</v>
+      </c>
+      <c r="F55">
+        <v>851.61099999999999</v>
+      </c>
+      <c r="G55">
+        <v>3942.3910000000001</v>
+      </c>
+      <c r="H55">
+        <v>10245.882</v>
+      </c>
+      <c r="I55">
+        <v>64.507999999999996</v>
+      </c>
+      <c r="J55">
+        <v>896.41800000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-4.4329999999999998</v>
+      </c>
+      <c r="N55">
+        <v>2112.3470000000002</v>
+      </c>
+      <c r="O55">
+        <v>3634.9989999999998</v>
+      </c>
+      <c r="P55">
+        <v>1509.7280000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-100.64</v>
+      </c>
+      <c r="R55">
+        <v>41698</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6610.8829999999998</v>
+      </c>
+      <c r="U55">
+        <v>733.91600000000005</v>
+      </c>
+      <c r="V55">
+        <v>251.673</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-258.209</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-65.028999999999996</v>
+      </c>
+      <c r="AA55">
+        <v>47.045999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>88.527000000000001</v>
+      </c>
+      <c r="D56">
+        <v>1068.2080000000001</v>
+      </c>
+      <c r="E56">
+        <v>531.55700000000002</v>
+      </c>
+      <c r="F56">
+        <v>913.30399999999997</v>
+      </c>
+      <c r="G56">
+        <v>4114.3429999999998</v>
+      </c>
+      <c r="H56">
+        <v>10372.199000000001</v>
+      </c>
+      <c r="I56">
+        <v>54.857999999999997</v>
+      </c>
+      <c r="J56">
+        <v>896.55100000000004</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2217.9720000000002</v>
+      </c>
+      <c r="O56">
+        <v>3735.3110000000001</v>
+      </c>
+      <c r="P56">
+        <v>1506.2929999999999</v>
+      </c>
+      <c r="Q56">
+        <v>83.103999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41789</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6636.8879999999999</v>
+      </c>
+      <c r="U56">
+        <v>817.02</v>
+      </c>
+      <c r="V56">
+        <v>367.536</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-135.92699999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-120.73399999999999</v>
+      </c>
+      <c r="AA56">
+        <v>88.527000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41880</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>44.686</v>
+      </c>
+      <c r="D57">
+        <v>1005.409</v>
+      </c>
+      <c r="E57">
+        <v>528.33100000000002</v>
+      </c>
+      <c r="F57">
+        <v>847.68499999999995</v>
+      </c>
+      <c r="G57">
+        <v>4279.4679999999998</v>
+      </c>
+      <c r="H57">
+        <v>10493.68</v>
+      </c>
+      <c r="I57">
+        <v>53.790999999999997</v>
+      </c>
+      <c r="J57">
+        <v>901.83</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2245.248</v>
+      </c>
+      <c r="O57">
+        <v>3762.42</v>
+      </c>
+      <c r="P57">
+        <v>1508.2560000000001</v>
+      </c>
+      <c r="Q57">
+        <v>86.308999999999997</v>
+      </c>
+      <c r="R57">
+        <v>41880</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>6731.26</v>
+      </c>
+      <c r="U57">
+        <v>903.32899999999995</v>
+      </c>
+      <c r="V57">
+        <v>268.52</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-9.7940000000000005</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-115.428</v>
+      </c>
+      <c r="AA57">
+        <v>44.686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>88.135999999999996</v>
+      </c>
+      <c r="D58">
+        <v>1073.328</v>
+      </c>
+      <c r="E58">
+        <v>591.79999999999995</v>
+      </c>
+      <c r="F58">
+        <v>912.38499999999999</v>
+      </c>
+      <c r="G58">
+        <v>4602.3280000000004</v>
+      </c>
+      <c r="H58">
+        <v>10785.829</v>
+      </c>
+      <c r="I58">
+        <v>68.376999999999995</v>
+      </c>
+      <c r="J58">
+        <v>911.08600000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2494.4349999999999</v>
+      </c>
+      <c r="O58">
+        <v>4009.924</v>
+      </c>
+      <c r="P58">
+        <v>1514.3150000000001</v>
+      </c>
+      <c r="Q58">
+        <v>214.071</v>
+      </c>
+      <c r="R58">
+        <v>41971</v>
+      </c>
+      <c r="S58">
+        <v>12499</v>
+      </c>
+      <c r="T58">
+        <v>6775.9049999999997</v>
+      </c>
+      <c r="U58">
+        <v>1117.4000000000001</v>
+      </c>
+      <c r="V58">
+        <v>399.75299999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-103.35299999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-11.382</v>
+      </c>
+      <c r="AA58">
+        <v>88.135999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42062</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>84.888000000000005</v>
+      </c>
+      <c r="D59">
+        <v>1109.181</v>
+      </c>
+      <c r="E59">
+        <v>532.42700000000002</v>
+      </c>
+      <c r="F59">
+        <v>942.38300000000004</v>
+      </c>
+      <c r="G59">
+        <v>3972.1590000000001</v>
+      </c>
+      <c r="H59">
+        <v>11008.422</v>
+      </c>
+      <c r="I59">
+        <v>71.67</v>
+      </c>
+      <c r="J59">
+        <v>1901.5540000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-602.18899999999996</v>
+      </c>
+      <c r="N59">
+        <v>1788.16</v>
+      </c>
+      <c r="O59">
+        <v>4419.402</v>
+      </c>
+      <c r="P59">
+        <v>1901.6179999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-404.51600000000002</v>
+      </c>
+      <c r="R59">
+        <v>42062</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6589.02</v>
+      </c>
+      <c r="U59">
+        <v>712.88400000000001</v>
+      </c>
+      <c r="V59">
+        <v>183.01499999999999</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>119.27500000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>137.517</v>
+      </c>
+      <c r="AA59">
+        <v>84.888000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>147.49299999999999</v>
+      </c>
+      <c r="D60">
+        <v>1162.1579999999999</v>
+      </c>
+      <c r="E60">
+        <v>502.61700000000002</v>
+      </c>
+      <c r="F60">
+        <v>976.98500000000001</v>
+      </c>
+      <c r="G60">
+        <v>4178.3969999999999</v>
+      </c>
+      <c r="H60">
+        <v>11165.383</v>
+      </c>
+      <c r="I60">
+        <v>56.539000000000001</v>
+      </c>
+      <c r="J60">
+        <v>1904.376</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1937.0329999999999</v>
+      </c>
+      <c r="O60">
+        <v>4555.28</v>
+      </c>
+      <c r="P60">
+        <v>1904.376</v>
+      </c>
+      <c r="Q60">
+        <v>243.26300000000001</v>
+      </c>
+      <c r="R60">
+        <v>42153</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>6610.1030000000001</v>
+      </c>
+      <c r="U60">
+        <v>956.14700000000005</v>
+      </c>
+      <c r="V60">
+        <v>471.48399999999998</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-186.102</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="AA60">
+        <v>147.49299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>174.465</v>
+      </c>
+      <c r="D61">
+        <v>1217.768</v>
+      </c>
+      <c r="E61">
+        <v>593.55399999999997</v>
+      </c>
+      <c r="F61">
+        <v>1026.7829999999999</v>
+      </c>
+      <c r="G61">
+        <v>4525.8879999999999</v>
+      </c>
+      <c r="H61">
+        <v>11508.395</v>
+      </c>
+      <c r="I61">
+        <v>69.822999999999993</v>
+      </c>
+      <c r="J61">
+        <v>1906.0940000000001</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2060.8139999999999</v>
+      </c>
+      <c r="O61">
+        <v>4667.0630000000001</v>
+      </c>
+      <c r="P61">
+        <v>1906.0940000000001</v>
+      </c>
+      <c r="Q61">
+        <v>-126.855</v>
+      </c>
+      <c r="R61">
+        <v>42244</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>6841.3320000000003</v>
+      </c>
+      <c r="U61">
+        <v>829.29200000000003</v>
+      </c>
+      <c r="V61">
+        <v>360.488</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-18.71</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-396.08199999999999</v>
+      </c>
+      <c r="AA61">
+        <v>174.465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42335</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>222.70500000000001</v>
+      </c>
+      <c r="D62">
+        <v>1306.404</v>
+      </c>
+      <c r="E62">
+        <v>672.00599999999997</v>
+      </c>
+      <c r="F62">
+        <v>1105.0429999999999</v>
+      </c>
+      <c r="G62">
+        <v>4821.8919999999998</v>
+      </c>
+      <c r="H62">
+        <v>11726.472</v>
+      </c>
+      <c r="I62">
+        <v>93.307000000000002</v>
+      </c>
+      <c r="J62">
+        <v>1907.231</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2213.556</v>
+      </c>
+      <c r="O62">
+        <v>4724.8919999999998</v>
+      </c>
+      <c r="P62">
+        <v>1907.231</v>
+      </c>
+      <c r="Q62">
+        <v>47.268000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42335</v>
+      </c>
+      <c r="S62">
+        <v>13893</v>
+      </c>
+      <c r="T62">
+        <v>7001.58</v>
+      </c>
+      <c r="U62">
+        <v>876.56</v>
+      </c>
+      <c r="V62">
+        <v>454.51499999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-115.15</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-279.08999999999997</v>
+      </c>
+      <c r="AA62">
+        <v>222.70500000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42433</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>254.30699999999999</v>
+      </c>
+      <c r="D63">
+        <v>1383.335</v>
+      </c>
+      <c r="E63">
+        <v>599.20699999999999</v>
+      </c>
+      <c r="F63">
+        <v>1184.7629999999999</v>
+      </c>
+      <c r="G63">
+        <v>4935.3900000000003</v>
+      </c>
+      <c r="H63">
+        <v>11896.682000000001</v>
+      </c>
+      <c r="I63">
+        <v>71.706000000000003</v>
+      </c>
+      <c r="J63">
+        <v>1916.8309999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2231.806</v>
+      </c>
+      <c r="O63">
+        <v>4815.4799999999996</v>
+      </c>
+      <c r="P63">
+        <v>1916.8309999999999</v>
+      </c>
+      <c r="Q63">
+        <v>-45.863999999999997</v>
+      </c>
+      <c r="R63">
+        <v>42433</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7081.2020000000002</v>
+      </c>
+      <c r="U63">
+        <v>830.69600000000003</v>
+      </c>
+      <c r="V63">
+        <v>497.52699999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-284.392</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-212.642</v>
+      </c>
+      <c r="AA63">
+        <v>254.30699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42524</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>244.07400000000001</v>
+      </c>
+      <c r="D64">
+        <v>1398.7090000000001</v>
+      </c>
+      <c r="E64">
+        <v>666.73599999999999</v>
+      </c>
+      <c r="F64">
+        <v>1196.6300000000001</v>
+      </c>
+      <c r="G64">
+        <v>5238.5640000000003</v>
+      </c>
+      <c r="H64">
+        <v>12216.782999999999</v>
+      </c>
+      <c r="I64">
+        <v>75.581999999999994</v>
+      </c>
+      <c r="J64">
+        <v>1918.3889999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2385.59</v>
+      </c>
+      <c r="O64">
+        <v>4968.1719999999996</v>
+      </c>
+      <c r="P64">
+        <v>1918.3889999999999</v>
+      </c>
+      <c r="Q64">
+        <v>55.683</v>
+      </c>
+      <c r="R64">
+        <v>42524</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7248.6109999999999</v>
+      </c>
+      <c r="U64">
+        <v>886.37900000000002</v>
+      </c>
+      <c r="V64">
+        <v>488.71499999999997</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-180.88800000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-149.31899999999999</v>
+      </c>
+      <c r="AA64">
+        <v>244.07400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42615</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>270.78800000000001</v>
+      </c>
+      <c r="D65">
+        <v>1463.9670000000001</v>
+      </c>
+      <c r="E65">
+        <v>731.16600000000005</v>
+      </c>
+      <c r="F65">
+        <v>1261.2660000000001</v>
+      </c>
+      <c r="G65">
+        <v>5418.71</v>
+      </c>
+      <c r="H65">
+        <v>12367.441000000001</v>
+      </c>
+      <c r="I65">
+        <v>83.444000000000003</v>
+      </c>
+      <c r="J65">
+        <v>1916.5909999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2505.6660000000002</v>
+      </c>
+      <c r="O65">
+        <v>5089.4949999999999</v>
+      </c>
+      <c r="P65">
+        <v>1916.5909999999999</v>
+      </c>
+      <c r="Q65">
+        <v>-118.70699999999999</v>
+      </c>
+      <c r="R65">
+        <v>42615</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7277.9459999999999</v>
+      </c>
+      <c r="U65">
+        <v>767.67200000000003</v>
+      </c>
+      <c r="V65">
+        <v>517.88499999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-324.95699999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-251.375</v>
+      </c>
+      <c r="AA65">
+        <v>270.78800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42706</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>399.613</v>
+      </c>
+      <c r="D66">
+        <v>1608.4190000000001</v>
+      </c>
+      <c r="E66">
+        <v>833.03300000000002</v>
+      </c>
+      <c r="F66">
+        <v>1391.8630000000001</v>
+      </c>
+      <c r="G66">
+        <v>5839.7740000000003</v>
+      </c>
+      <c r="H66">
+        <v>12697.245999999999</v>
+      </c>
+      <c r="I66">
+        <v>88.024000000000001</v>
+      </c>
+      <c r="J66">
+        <v>1892.2</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2811.6350000000002</v>
+      </c>
+      <c r="O66">
+        <v>5272.4110000000001</v>
+      </c>
+      <c r="P66">
+        <v>1892.2</v>
+      </c>
+      <c r="Q66">
+        <v>243.643</v>
+      </c>
+      <c r="R66">
+        <v>42706</v>
+      </c>
+      <c r="S66">
+        <v>15706</v>
+      </c>
+      <c r="T66">
+        <v>7424.835</v>
+      </c>
+      <c r="U66">
+        <v>1011.3150000000001</v>
+      </c>
+      <c r="V66">
+        <v>695.601</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-300.46899999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-94.465000000000003</v>
+      </c>
+      <c r="AA66">
+        <v>399.613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42797</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>398.44600000000003</v>
+      </c>
+      <c r="D67">
+        <v>1681.646</v>
+      </c>
+      <c r="E67">
+        <v>850.84</v>
+      </c>
+      <c r="F67">
+        <v>1444.309</v>
+      </c>
+      <c r="G67">
+        <v>5755.5619999999999</v>
+      </c>
+      <c r="H67">
+        <v>13044.782999999999</v>
+      </c>
+      <c r="I67">
+        <v>191.48400000000001</v>
+      </c>
+      <c r="J67">
+        <v>1884.0740000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="N67">
+        <v>2954.069</v>
+      </c>
+      <c r="O67">
+        <v>5456.0929999999998</v>
+      </c>
+      <c r="P67">
+        <v>1884.0740000000001</v>
+      </c>
+      <c r="Q67">
+        <v>57.581000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42797</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7588.69</v>
+      </c>
+      <c r="U67">
+        <v>1068.896</v>
+      </c>
+      <c r="V67">
+        <v>730.37</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-331.495</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>151.64699999999999</v>
+      </c>
+      <c r="AA67">
+        <v>398.44600000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42888</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>374.39</v>
+      </c>
+      <c r="D68">
+        <v>1772.19</v>
+      </c>
+      <c r="E68">
+        <v>901.452</v>
+      </c>
+      <c r="F68">
+        <v>1532.83</v>
+      </c>
+      <c r="G68">
+        <v>6052.1970000000001</v>
+      </c>
+      <c r="H68">
+        <v>13364.9</v>
+      </c>
+      <c r="I68">
+        <v>77.905000000000001</v>
+      </c>
+      <c r="J68">
+        <v>1888.3979999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3047.8960000000002</v>
+      </c>
+      <c r="O68">
+        <v>5560.902</v>
+      </c>
+      <c r="P68">
+        <v>1888.3979999999999</v>
+      </c>
+      <c r="Q68">
+        <v>248.054</v>
+      </c>
+      <c r="R68">
+        <v>42888</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7803.9979999999996</v>
+      </c>
+      <c r="U68">
+        <v>1316.95</v>
+      </c>
+      <c r="V68">
+        <v>644.827</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-314.43200000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-32.25</v>
+      </c>
+      <c r="AA68">
+        <v>374.39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>419.56900000000002</v>
+      </c>
+      <c r="D69">
+        <v>1841.0740000000001</v>
+      </c>
+      <c r="E69">
+        <v>1006.187</v>
+      </c>
+      <c r="F69">
+        <v>1578.152</v>
+      </c>
+      <c r="G69">
+        <v>6581.0569999999998</v>
+      </c>
+      <c r="H69">
+        <v>13906.815000000001</v>
+      </c>
+      <c r="I69">
+        <v>90.326999999999998</v>
+      </c>
+      <c r="J69">
+        <v>1889.2180000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3216.1439999999998</v>
+      </c>
+      <c r="O69">
+        <v>5736.3810000000003</v>
+      </c>
+      <c r="P69">
+        <v>1889.2180000000001</v>
+      </c>
+      <c r="Q69">
+        <v>457.6</v>
+      </c>
+      <c r="R69">
+        <v>42979</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8170.4340000000002</v>
+      </c>
+      <c r="U69">
+        <v>1774.55</v>
+      </c>
+      <c r="V69">
+        <v>704.43600000000004</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-218.29900000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>17.423999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>419.56900000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>501.54899999999998</v>
+      </c>
+      <c r="D70">
+        <v>2006.595</v>
+      </c>
+      <c r="E70">
+        <v>1217.9680000000001</v>
+      </c>
+      <c r="F70">
+        <v>1735.723</v>
+      </c>
+      <c r="G70">
+        <v>7247.8130000000001</v>
+      </c>
+      <c r="H70">
+        <v>14535.556</v>
+      </c>
+      <c r="I70">
+        <v>113.538</v>
+      </c>
+      <c r="J70">
+        <v>1882.479</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3527.4569999999999</v>
+      </c>
+      <c r="O70">
+        <v>6075.6869999999999</v>
+      </c>
+      <c r="P70">
+        <v>1882.479</v>
+      </c>
+      <c r="Q70">
+        <v>531.52200000000005</v>
+      </c>
+      <c r="R70">
+        <v>43070</v>
+      </c>
+      <c r="S70">
+        <v>17973</v>
+      </c>
+      <c r="T70">
+        <v>8459.8690000000006</v>
+      </c>
+      <c r="U70">
+        <v>2306.0720000000001</v>
+      </c>
+      <c r="V70">
+        <v>833.22</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-319.50900000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>58.05</v>
+      </c>
+      <c r="AA70">
+        <v>501.54899999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>583.07600000000002</v>
+      </c>
+      <c r="D71">
+        <v>2078.9470000000001</v>
+      </c>
+      <c r="E71">
+        <v>1062.69</v>
+      </c>
+      <c r="F71">
+        <v>1820.0450000000001</v>
+      </c>
+      <c r="G71">
+        <v>7480.8140000000003</v>
+      </c>
+      <c r="H71">
+        <v>14973.485000000001</v>
+      </c>
+      <c r="I71">
+        <v>131.09</v>
+      </c>
+      <c r="J71">
+        <v>1883.3109999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="N71">
+        <v>3536.4690000000001</v>
+      </c>
+      <c r="O71">
+        <v>6339.4570000000003</v>
+      </c>
+      <c r="P71">
+        <v>1883.3109999999999</v>
+      </c>
+      <c r="Q71">
+        <v>360.90899999999999</v>
+      </c>
+      <c r="R71">
+        <v>43161</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8634.0280000000002</v>
+      </c>
+      <c r="U71">
+        <v>2666.9810000000002</v>
+      </c>
+      <c r="V71">
+        <v>989.601</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-541.27300000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1.38</v>
+      </c>
+      <c r="AA71">
+        <v>583.07600000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>663.16700000000003</v>
+      </c>
+      <c r="D72">
+        <v>2195.36</v>
+      </c>
+      <c r="E72">
+        <v>1074.877</v>
+      </c>
+      <c r="F72">
+        <v>1914.0160000000001</v>
+      </c>
+      <c r="G72">
+        <v>7741.4440000000004</v>
+      </c>
+      <c r="H72">
+        <v>15163.404</v>
+      </c>
+      <c r="I72">
+        <v>117.194</v>
+      </c>
+      <c r="J72">
+        <v>1884.133</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3728.9560000000001</v>
+      </c>
+      <c r="O72">
+        <v>6457.8209999999999</v>
+      </c>
+      <c r="P72">
+        <v>1884.133</v>
+      </c>
+      <c r="Q72">
+        <v>321.005</v>
+      </c>
+      <c r="R72">
+        <v>43252</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8705.5830000000005</v>
+      </c>
+      <c r="U72">
+        <v>2987.9859999999999</v>
+      </c>
+      <c r="V72">
+        <v>976.40599999999995</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-717.36500000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>127.60899999999999</v>
+      </c>
+      <c r="AA72">
+        <v>663.16700000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>666.29100000000005</v>
+      </c>
+      <c r="D73">
+        <v>2291.076</v>
+      </c>
+      <c r="E73">
+        <v>1044.5070000000001</v>
+      </c>
+      <c r="F73">
+        <v>1995.5840000000001</v>
+      </c>
+      <c r="G73">
+        <v>6300.9129999999996</v>
+      </c>
+      <c r="H73">
+        <v>15395.62</v>
+      </c>
+      <c r="I73">
+        <v>145.566</v>
+      </c>
+      <c r="J73">
+        <v>1884.9659999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3792.027</v>
+      </c>
+      <c r="O73">
+        <v>6533.6949999999997</v>
+      </c>
+      <c r="P73">
+        <v>1884.9659999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-1240.8420000000001</v>
+      </c>
+      <c r="R73">
+        <v>43343</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8861.9249999999993</v>
+      </c>
+      <c r="U73">
+        <v>1747.144</v>
+      </c>
+      <c r="V73">
+        <v>955.30399999999997</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-671.66099999999994</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>161.65100000000001</v>
+      </c>
+      <c r="AA73">
+        <v>666.29100000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>678.24</v>
+      </c>
+      <c r="D74">
+        <v>2464.625</v>
+      </c>
+      <c r="E74">
+        <v>1315.578</v>
+      </c>
+      <c r="F74">
+        <v>2105.364</v>
+      </c>
+      <c r="G74">
+        <v>4857.0389999999998</v>
+      </c>
+      <c r="H74">
+        <v>18768.682000000001</v>
+      </c>
+      <c r="I74">
+        <v>186.25800000000001</v>
+      </c>
+      <c r="J74">
+        <v>4134.5439999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>4301.1260000000002</v>
+      </c>
+      <c r="O74">
+        <v>9406.5679999999993</v>
+      </c>
+      <c r="P74">
+        <v>4134.5439999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-104.369</v>
+      </c>
+      <c r="R74">
+        <v>43434</v>
+      </c>
+      <c r="S74">
+        <v>21357</v>
+      </c>
+      <c r="T74">
+        <v>9362.1139999999996</v>
+      </c>
+      <c r="U74">
+        <v>1642.7750000000001</v>
+      </c>
+      <c r="V74">
+        <v>1107.9929999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>1924.731</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1605.0260000000001</v>
+      </c>
+      <c r="AA74">
+        <v>678.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>674</v>
+      </c>
+      <c r="D75">
+        <v>2601</v>
+      </c>
+      <c r="E75">
+        <v>1342.3430000000001</v>
+      </c>
+      <c r="F75">
+        <v>2204</v>
+      </c>
+      <c r="G75">
+        <v>5133.7150000000001</v>
+      </c>
+      <c r="H75">
+        <v>19505.536</v>
+      </c>
+      <c r="I75">
+        <v>145.292</v>
+      </c>
+      <c r="J75">
+        <v>3243.1109999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5313.7359999999999</v>
+      </c>
+      <c r="O75">
+        <v>9634.0509999999995</v>
+      </c>
+      <c r="P75">
+        <v>4135.8649999999998</v>
+      </c>
+      <c r="Q75">
+        <v>96</v>
+      </c>
+      <c r="R75">
+        <v>43525</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9871.4850000000006</v>
+      </c>
+      <c r="U75">
+        <v>1738.846</v>
+      </c>
+      <c r="V75">
+        <v>1013</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-784</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>33</v>
+      </c>
+      <c r="AA75">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>633</v>
+      </c>
+      <c r="D76">
+        <v>2744</v>
+      </c>
+      <c r="E76">
+        <v>1272.6679999999999</v>
+      </c>
+      <c r="F76">
+        <v>2337</v>
+      </c>
+      <c r="G76">
+        <v>5342.6450000000004</v>
+      </c>
+      <c r="H76">
+        <v>19665.909</v>
+      </c>
+      <c r="I76">
+        <v>169.101</v>
+      </c>
+      <c r="J76">
+        <v>990.90200000000004</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>7687.0969999999998</v>
+      </c>
+      <c r="O76">
+        <v>9734.2160000000003</v>
+      </c>
+      <c r="P76">
+        <v>4136.57</v>
+      </c>
+      <c r="Q76">
+        <v>344</v>
+      </c>
+      <c r="R76">
+        <v>43616</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9931.6929999999993</v>
+      </c>
+      <c r="U76">
+        <v>2082.91</v>
+      </c>
+      <c r="V76">
+        <v>1110</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-772</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>156</v>
+      </c>
+      <c r="AA76">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>793</v>
+      </c>
+      <c r="D77">
+        <v>2834</v>
+      </c>
+      <c r="E77">
+        <v>1371.6969999999999</v>
+      </c>
+      <c r="F77">
+        <v>2418</v>
+      </c>
+      <c r="G77">
+        <v>5750.0959999999995</v>
+      </c>
+      <c r="H77">
+        <v>20054.88</v>
+      </c>
+      <c r="I77">
+        <v>186.999</v>
+      </c>
+      <c r="J77">
+        <v>988.42899999999997</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>7802.9660000000003</v>
+      </c>
+      <c r="O77">
+        <v>9812.107</v>
+      </c>
+      <c r="P77">
+        <v>4137.4870000000001</v>
+      </c>
+      <c r="Q77">
+        <v>126</v>
+      </c>
+      <c r="R77">
+        <v>43707</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10242.772999999999</v>
+      </c>
+      <c r="U77">
+        <v>2209.047</v>
+      </c>
+      <c r="V77">
+        <v>922</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-624</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-76</v>
+      </c>
+      <c r="AA77">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>851</v>
+      </c>
+      <c r="D78">
+        <v>2992</v>
+      </c>
+      <c r="E78">
+        <v>1535</v>
+      </c>
+      <c r="F78">
+        <v>2540</v>
+      </c>
+      <c r="G78">
+        <v>6495</v>
+      </c>
+      <c r="H78">
+        <v>20762</v>
+      </c>
+      <c r="I78">
+        <v>209</v>
+      </c>
+      <c r="J78">
+        <v>989</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8191</v>
+      </c>
+      <c r="O78">
+        <v>10232</v>
+      </c>
+      <c r="P78">
+        <v>4138</v>
+      </c>
+      <c r="Q78">
+        <v>441</v>
+      </c>
+      <c r="R78">
+        <v>43798</v>
+      </c>
+      <c r="S78">
+        <v>22634</v>
+      </c>
+      <c r="T78">
+        <v>10530</v>
+      </c>
+      <c r="U78">
+        <v>2650</v>
+      </c>
+      <c r="V78">
+        <v>1377</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-766</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>-73</v>
+      </c>
+      <c r="AA78">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>955</v>
+      </c>
+      <c r="D79">
+        <v>3091</v>
+      </c>
+      <c r="E79">
+        <v>1389</v>
+      </c>
+      <c r="F79">
+        <v>2639</v>
+      </c>
+      <c r="G79">
+        <v>6455</v>
+      </c>
+      <c r="H79">
+        <v>21214</v>
+      </c>
+      <c r="I79">
+        <v>265</v>
+      </c>
+      <c r="J79">
+        <v>4113</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3150</v>
+      </c>
+      <c r="N79">
+        <v>5228</v>
+      </c>
+      <c r="O79">
+        <v>10749</v>
+      </c>
+      <c r="P79">
+        <v>4711</v>
+      </c>
+      <c r="Q79">
+        <v>38</v>
+      </c>
+      <c r="R79">
+        <v>43889</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10465</v>
+      </c>
+      <c r="U79">
+        <v>2688</v>
+      </c>
+      <c r="V79">
+        <v>1325</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-1233</v>
+      </c>
+      <c r="Y79">
+        <v>514</v>
+      </c>
+      <c r="Z79">
+        <v>46</v>
+      </c>
+      <c r="AA79">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1100</v>
+      </c>
+      <c r="D80">
+        <v>3128</v>
+      </c>
+      <c r="E80">
+        <v>1366</v>
+      </c>
+      <c r="F80">
+        <v>2713</v>
+      </c>
+      <c r="G80">
+        <v>6649</v>
+      </c>
+      <c r="H80">
+        <v>21603</v>
+      </c>
+      <c r="I80">
+        <v>289</v>
+      </c>
+      <c r="J80">
+        <v>4114</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5164</v>
+      </c>
+      <c r="O80">
+        <v>10722</v>
+      </c>
+      <c r="P80">
+        <v>4697</v>
+      </c>
+      <c r="Q80">
+        <v>356</v>
+      </c>
+      <c r="R80">
+        <v>43980</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10881</v>
+      </c>
+      <c r="U80">
+        <v>3044</v>
+      </c>
+      <c r="V80">
+        <v>1184</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-901</v>
+      </c>
+      <c r="Y80">
+        <v>498</v>
+      </c>
+      <c r="Z80">
+        <v>176</v>
+      </c>
+      <c r="AA80">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>955</v>
+      </c>
+      <c r="D81">
+        <v>3225</v>
+      </c>
+      <c r="E81">
+        <v>1318</v>
+      </c>
+      <c r="F81">
+        <v>2798</v>
+      </c>
+      <c r="G81">
+        <v>7387</v>
+      </c>
+      <c r="H81">
+        <v>22414</v>
+      </c>
+      <c r="I81">
+        <v>229</v>
+      </c>
+      <c r="J81">
+        <v>4116</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5130</v>
+      </c>
+      <c r="O81">
+        <v>10701</v>
+      </c>
+      <c r="P81">
+        <v>4726</v>
+      </c>
+      <c r="Q81">
+        <v>723</v>
+      </c>
+      <c r="R81">
+        <v>44071</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11713</v>
+      </c>
+      <c r="U81">
+        <v>3767</v>
+      </c>
+      <c r="V81">
+        <v>1436</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-414</v>
+      </c>
+      <c r="Y81">
+        <v>520</v>
+      </c>
+      <c r="Z81">
+        <v>-189</v>
+      </c>
+      <c r="AA81">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>2250</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3424</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1398</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2996</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>8146</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>24284</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>306</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4117</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>5512</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11020</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4708</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>711</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44162</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>22516</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>13264</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>4478</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1782</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-940</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>499</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-28</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>2250</v>
       </c>
     </row>
